--- a/WorkflowSynthesis/flowmap/evaluation/evaluation.xlsx
+++ b/WorkflowSynthesis/flowmap/evaluation/evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schei008\.matplotlib\Documents\github\QuAnGIS\WorkflowSynthesis\flowmap\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F97E5D-F14F-4580-8531-405CCD44B476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E96D2C3-4E49-4E25-BAA1-06B0ADB317A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="143">
   <si>
     <t>Workflow task</t>
   </si>
@@ -61,325 +61,352 @@
     <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:ThresholdAmount</t>
   </si>
   <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:FlowMatrixDoubly Tool5:FlowSummation</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:FlowMatrixDoubly Tool5:FlowMatrixSingly</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:ThresholdAmount Tool5:ThresholdAmount</t>
+  </si>
+  <si>
     <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:ThresholdAmount</t>
   </si>
   <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:FlowMatrix Tool5:FlowSummation</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:ThresholdAmount Tool5:ThresholdAmount</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:DistanceMatrix Tool5:ThresholdAmount Tool6:ThresholdAmount</t>
-  </si>
-  <si>
     <t>solution1bench</t>
   </si>
   <si>
+    <t>1:ObjectLine 2:VectorTessellationA</t>
+  </si>
+  <si>
+    <t>Tool1:DistanceMatrix</t>
+  </si>
+  <si>
+    <t>1:LineMeasures 2:PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>Tool1:DistanceMatrix Tool2:FlowSummation</t>
+  </si>
+  <si>
     <t>1:LineMeasures 2:VectorTessellationA</t>
   </si>
   <si>
-    <t>Tool1:DistanceMatrix</t>
-  </si>
-  <si>
-    <t>1:ObjectLine 2:VectorTessellationA</t>
+    <t>Tool1:DistanceMatrix Tool2:CatchmentArea</t>
+  </si>
+  <si>
+    <t>Tool1:NetworkAnalysis Tool2:DistanceMatrix</t>
+  </si>
+  <si>
+    <t>Tool1:DistanceMatrix Tool2:ThresholdAmount</t>
+  </si>
+  <si>
+    <t>solution2</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:ThresholdDistance</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:FlowMatrixDoubly</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:ThresholdDistance</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:FlowMatrixDoubly</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:ThresholdAmount Tool5:ThresholdDistance</t>
+  </si>
+  <si>
+    <t>solution2bench</t>
+  </si>
+  <si>
+    <t>solution3</t>
+  </si>
+  <si>
+    <t>1:ObjectQ|LineA|PlainNominalA 2:ObjectQ|VectorTessellationA|PlainNominalA</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:CatchmentArea</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:CatchmentArea</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:CatchmentArea Tool5:DistanceMatrix Tool6:CatchmentArea</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:MeasureSize Tool4:DistanceNetwork Tool5:DistanceMatrix Tool6:CatchmentArea</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:NetworkAnalysis Tool4:MeasureSize Tool5:DistanceNetwork Tool6:DistanceMatrix Tool7:CatchmentArea</t>
+  </si>
+  <si>
+    <t>solution3bench</t>
+  </si>
+  <si>
+    <t>solution4</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:NetworkAnalysis</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:DistanceNetwork Tool4:NetworkAnalysis</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:CatchmentArea Tool5:NetworkAnalysis</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:MeasureSize Tool4:DistanceNetwork Tool5:NetworkAnalysis</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:NetworkAnalysis Tool4:MeasureSize Tool5:DistanceNetwork Tool6:NetworkAnalysis</t>
+  </si>
+  <si>
+    <t>solution4bench</t>
+  </si>
+  <si>
+    <t>Tool1:NetworkAnalysis</t>
+  </si>
+  <si>
+    <t>Tool1:FlowAssignment</t>
+  </si>
+  <si>
+    <t>Tool1:FlowMatrixSingly Tool2:FlowAssignment</t>
+  </si>
+  <si>
+    <t>Tool1:CatchmentArea Tool2:FlowAssignment</t>
+  </si>
+  <si>
+    <t>Tool1:NetworkAnalysis Tool2:DistanceNetwork</t>
+  </si>
+  <si>
+    <t>solution5</t>
+  </si>
+  <si>
+    <t>1:MatrixQ|VectorTessellationA|ERA</t>
+  </si>
+  <si>
+    <t>Tool1:FlowSummation</t>
+  </si>
+  <si>
+    <t>solution5bench</t>
+  </si>
+  <si>
+    <t>1:VectorTessellationA</t>
+  </si>
+  <si>
+    <t>1:PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>Tool1:FlowMatrixSingly</t>
+  </si>
+  <si>
+    <t>Tool1:ThresholdAmount</t>
+  </si>
+  <si>
+    <t>Tool1:ThresholdDistance</t>
+  </si>
+  <si>
+    <t>Tool1:FunctionalClustering</t>
+  </si>
+  <si>
+    <t>solution6</t>
+  </si>
+  <si>
+    <t>1:MatrixQ|VectorTessellationA|ERA 2:ObjectQ|VectorTessellationA|PlainNominalA</t>
+  </si>
+  <si>
+    <t>Tool1:FunctionalClustering Tool2:FunctionalClustering</t>
+  </si>
+  <si>
+    <t>Tool1:FunctionalClustering Tool2:FunctionalClustering Tool3:FunctionalClustering</t>
+  </si>
+  <si>
+    <t>Tool1:FunctionalClustering Tool2:FunctionalClustering Tool3:FunctionalClustering Tool4:FunctionalClustering</t>
+  </si>
+  <si>
+    <t>Tool1:FunctionalClustering Tool2:FunctionalClustering Tool3:FunctionalClustering Tool4:FunctionalClustering Tool5:FunctionalClustering</t>
+  </si>
+  <si>
+    <t>solution6bench</t>
+  </si>
+  <si>
+    <t>1:PlainVectorRegionA 2:PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>1:PlainVectorRegionA 2:VectorTessellationA</t>
+  </si>
+  <si>
+    <t>1:VectorTessellationA 2:VectorTessellationA</t>
+  </si>
+  <si>
+    <t>Tool1:TradeArea</t>
+  </si>
+  <si>
+    <t>solution7</t>
+  </si>
+  <si>
+    <t>1:ObjectQ|LineA|PlainNominalA 2:ObjectQ|VectorTessellationA|PlainNominalA 3:MatrixQ|VectorTessellationA|ERA</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:TripLengthAnalysis</t>
+  </si>
+  <si>
+    <t>Tool1:FunctionalClustering Tool2:MeasureSize Tool3:DistanceNetwork Tool4:NetworkAnalysis Tool5:AccessibilityAnalysis</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:FunctionalClustering Tool4:DistanceMatrix Tool5:TripLengthAnalysis</t>
+  </si>
+  <si>
+    <t>Tool1:FunctionalClustering Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:TripLengthAnalysis</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:FunctionalClustering Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:TripLengthAnalysis</t>
+  </si>
+  <si>
+    <t>solution7bench</t>
+  </si>
+  <si>
+    <t>1:LineMeasures 2:PlainVectorRegionA 3:PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>Tool1:DistanceMatrix Tool2:TripLengthAnalysis</t>
+  </si>
+  <si>
+    <t>1:LineMeasures 2:PlainVectorRegionA 3:VectorTessellationA</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceMatrix Tool3:TripLengthAnalysis</t>
+  </si>
+  <si>
+    <t>1:LineMeasures 2:VectorTessellationA 3:VectorTessellationA</t>
+  </si>
+  <si>
+    <t>Tool1:DistanceNetwork Tool2:DistanceMatrix Tool3:TripLengthAnalysis</t>
+  </si>
+  <si>
+    <t>Tool1:DistanceMatrix Tool2:TradeArea Tool3:TripLengthAnalysis</t>
+  </si>
+  <si>
+    <t>1:ObjectLine 2:VectorTessellationA 3:PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>Tool1:NetworkAnalysis Tool2:DistanceMatrix Tool3:TripLengthAnalysis</t>
+  </si>
+  <si>
+    <t>solution8</t>
+  </si>
+  <si>
+    <t>1:ObjectQ|VectorTessellationA|PlainNominalA 2:ObjectQ|LineA|PlainNominalA 3:MatrixQ|VectorTessellationA|ERA</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:TradeArea</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:FlowSummation Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:TradeArea</t>
+  </si>
+  <si>
+    <t>Tool1:FlowSummation Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:TradeArea</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:FunctionalClustering Tool4:DistanceMatrix Tool5:TradeArea</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:TradeArea Tool5:TradeArea</t>
+  </si>
+  <si>
+    <t>solution8bench</t>
+  </si>
+  <si>
+    <t>1:VectorTessellationA 2:ObjectLine 3:PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>Tool1:DistanceMatrix Tool2:FlowMatrixDoubly</t>
+  </si>
+  <si>
+    <t>Tool1:FlowAssignment Tool2:DistanceMatrix</t>
+  </si>
+  <si>
+    <t>1:VectorTessellationA 2:LineMeasures 3:PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>Tool1:DistanceMatrix Tool2:TradeArea</t>
+  </si>
+  <si>
+    <t>Tool1:FunctionalClustering Tool2:DistanceMatrix</t>
+  </si>
+  <si>
+    <t>1:VectorTessellationA 2:LineMeasures 3:VectorTessellationA</t>
+  </si>
+  <si>
+    <t>solution9</t>
+  </si>
+  <si>
+    <t>1:ObjectQ|VectorTessellationA|ERA 2:ObjectQ|LineA|PlainNominalA</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:ThresholdDistance Tool5:FlowMatrixSingly</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:ThresholdAmount Tool5:FlowMatrixDoubly</t>
+  </si>
+  <si>
+    <t>solution9bench</t>
+  </si>
+  <si>
+    <t>1:VectorTessellationA 2:ObjectLine</t>
+  </si>
+  <si>
+    <t>1:VectorTessellationA 2:LineMeasures</t>
+  </si>
+  <si>
+    <t>1:PlainVectorRegionA 2:ObjectLine</t>
+  </si>
+  <si>
+    <t>Tool1:DistanceNetwork Tool2:DistanceMatrix</t>
+  </si>
+  <si>
+    <t>solution10</t>
+  </si>
+  <si>
+    <t>solution10bench</t>
+  </si>
+  <si>
+    <t>1:PlainVectorRegionA 2:LineMeasures</t>
+  </si>
+  <si>
+    <t>Tool1:DistanceMatrix Tool2:ThresholdDistance</t>
   </si>
   <si>
     <t>Tool1:MeasureSize Tool2:DistanceMatrix</t>
   </si>
   <si>
-    <t>Tool1:DistanceMatrix Tool2:CatchmentArea</t>
-  </si>
-  <si>
-    <t>Tool1:DistanceMatrix Tool2:TradeArea</t>
-  </si>
-  <si>
-    <t>Tool1:DistanceMatrix Tool2:DistanceMatrix</t>
-  </si>
-  <si>
-    <t>solution2</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:ThresholdDistance</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:ThresholdAmount Tool5:ThresholdDistance</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:ThresholdDistance</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:DistanceMatrix Tool5:ThresholdAmount Tool6:ThresholdDistance</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:ThresholdAmount Tool6:ThresholdDistance</t>
-  </si>
-  <si>
-    <t>solution2bench</t>
-  </si>
-  <si>
-    <t>solution3</t>
-  </si>
-  <si>
-    <t>1:ObjectQ|LineA|PlainNominalA 2:ObjectQ|VectorTessellationA|PlainNominalA</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:CatchmentArea</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:CatchmentArea</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:MeasureSize Tool4:DistanceNetwork Tool5:DistanceMatrix Tool6:CatchmentArea</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:CatchmentArea Tool5:DistanceMatrix Tool6:CatchmentArea</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:NetworkAnalysis Tool4:MeasureSize Tool5:DistanceNetwork Tool6:DistanceMatrix Tool7:CatchmentArea</t>
-  </si>
-  <si>
-    <t>solution3bench</t>
-  </si>
-  <si>
-    <t>solution4</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:NetworkAnalysis</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:DistanceNetwork Tool4:NetworkAnalysis</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:CatchmentArea Tool5:NetworkAnalysis</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:MeasureSize Tool4:DistanceNetwork Tool5:NetworkAnalysis</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:CatchmentArea Tool5:DistanceNetwork Tool6:NetworkAnalysis</t>
-  </si>
-  <si>
-    <t>solution4bench</t>
-  </si>
-  <si>
-    <t>1:LineMeasures 2:PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>Tool1:FlowAssignment</t>
-  </si>
-  <si>
-    <t>Tool1:NetworkAnalysis</t>
-  </si>
-  <si>
-    <t>Tool1:NetworkAnalysis Tool2:MeasureSize</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:NetworkAnalysis</t>
-  </si>
-  <si>
-    <t>Tool1:DistanceNetwork Tool2:NetworkAnalysis</t>
-  </si>
-  <si>
-    <t>solution5</t>
-  </si>
-  <si>
-    <t>1:MatrixQ|VectorTessellationA|ERA</t>
-  </si>
-  <si>
-    <t>Tool1:FlowSummation</t>
-  </si>
-  <si>
-    <t>solution5bench</t>
-  </si>
-  <si>
-    <t>1:VectorTessellationA</t>
-  </si>
-  <si>
-    <t>Tool1:TradeArea</t>
-  </si>
-  <si>
-    <t>1:PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>Tool1:CatchmentArea</t>
-  </si>
-  <si>
-    <t>Tool1:ThresholdAmount</t>
-  </si>
-  <si>
-    <t>Tool1:FlowMatrix</t>
-  </si>
-  <si>
-    <t>solution6</t>
-  </si>
-  <si>
-    <t>1:MatrixQ|VectorTessellationA|ERA 2:ObjectQ|VectorTessellationA|PlainNominalA</t>
-  </si>
-  <si>
-    <t>Tool1:FunctionalClustering</t>
-  </si>
-  <si>
-    <t>Tool1:FunctionalClustering Tool2:FunctionalClustering</t>
-  </si>
-  <si>
-    <t>Tool1:FunctionalClustering Tool2:FunctionalClustering Tool3:FunctionalClustering</t>
-  </si>
-  <si>
-    <t>Tool1:FunctionalClustering Tool2:FunctionalClustering Tool3:FunctionalClustering Tool4:FunctionalClustering</t>
-  </si>
-  <si>
-    <t>Tool1:FunctionalClustering Tool2:FunctionalClustering Tool3:FunctionalClustering Tool4:FunctionalClustering Tool5:FunctionalClustering</t>
-  </si>
-  <si>
-    <t>solution6bench</t>
-  </si>
-  <si>
-    <t>1:PlainVectorRegionA 2:VectorTessellationA</t>
-  </si>
-  <si>
-    <t>1:VectorTessellationA 2:VectorTessellationA</t>
-  </si>
-  <si>
-    <t>1:PlainVectorRegionA 2:PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>Tool1:ThresholdDistance</t>
-  </si>
-  <si>
-    <t>solution7</t>
-  </si>
-  <si>
-    <t>1:ObjectQ|LineA|PlainNominalA 2:ObjectQ|VectorTessellationA|PlainNominalA 3:MatrixQ|VectorTessellationA|ERA</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:TripLengthAnalysis</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:FunctionalClustering Tool4:NetworkAnalysis Tool5:AccessibilityAnalysis</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:FunctionalClustering Tool3:DistanceNetwork Tool4:NetworkAnalysis Tool5:AccessibilityAnalysis</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:TripLengthAnalysis</t>
-  </si>
-  <si>
-    <t>Tool1:FunctionalClustering Tool2:MeasureSize Tool3:DistanceNetwork Tool4:NetworkAnalysis Tool5:AccessibilityAnalysis</t>
-  </si>
-  <si>
-    <t>solution7bench</t>
-  </si>
-  <si>
-    <t>1:ObjectLine 2:VectorTessellationA 3:PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>Tool1:DistanceMatrix Tool2:TripLengthAnalysis</t>
-  </si>
-  <si>
-    <t>1:LineMeasures 2:VectorTessellationA 3:PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>Tool1:FlowAssignment Tool2:DistanceMatrix Tool3:AccessibilityAnalysis</t>
-  </si>
-  <si>
-    <t>1:LineMeasures 2:PlainVectorRegionA 3:VectorTessellationA</t>
-  </si>
-  <si>
-    <t>Tool1:DistanceNetwork Tool2:DistanceMatrix Tool3:TripLengthAnalysis</t>
-  </si>
-  <si>
-    <t>1:ObjectLine 2:VectorTessellationA 3:VectorTessellationA</t>
-  </si>
-  <si>
-    <t>Tool1:FlowSummation Tool2:DistanceMatrix Tool3:TripLengthAnalysis</t>
-  </si>
-  <si>
-    <t>1:LineMeasures 2:VectorTessellationA 3:VectorTessellationA</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceMatrix Tool3:TripLengthAnalysis</t>
-  </si>
-  <si>
-    <t>solution8</t>
-  </si>
-  <si>
-    <t>1:ObjectQ|VectorTessellationA|PlainNominalA 2:ObjectQ|LineA|PlainNominalA 3:MatrixQ|VectorTessellationA|ERA</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:TradeArea</t>
-  </si>
-  <si>
-    <t>Tool1:FunctionalClustering Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:TradeArea</t>
-  </si>
-  <si>
-    <t>Tool1:FlowSummation Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:TradeArea</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:FlowSummation Tool4:DistanceMatrix Tool5:TradeArea</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:TradeArea Tool5:TradeArea</t>
-  </si>
-  <si>
-    <t>solution8bench</t>
-  </si>
-  <si>
-    <t>1:VectorTessellationA 2:ObjectLine 3:VectorTessellationA</t>
-  </si>
-  <si>
-    <t>Tool1:NetworkAnalysis Tool2:DistanceMatrix</t>
-  </si>
-  <si>
-    <t>1:PlainVectorRegionA 2:LineMeasures 3:PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>Tool1:DistanceMatrix Tool2:FlowMatrix</t>
+    <t>Tool1:FlowMatrixSingly Tool2:DistanceMatrix</t>
+  </si>
+  <si>
+    <t>solution11</t>
+  </si>
+  <si>
+    <t>1:ObjectQ|VectorTessellationA|ERA 2:ObjectQ|LineA|PlainNominalA 3:ObjectQ|VectorTessellationA|IRA</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:FlowMatrixSingly</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:ThresholdAmount Tool5:FlowMatrixSingly</t>
+  </si>
+  <si>
+    <t>solution11bench</t>
+  </si>
+  <si>
+    <t>1:PlainVectorRegionA 2:ObjectLine 3:PlainVectorRegionA</t>
   </si>
   <si>
     <t>1:PlainVectorRegionA 2:LineMeasures 3:VectorTessellationA</t>
   </si>
   <si>
-    <t>Tool1:DistanceMatrix Tool2:ThresholdAmount</t>
-  </si>
-  <si>
-    <t>1:VectorTessellationA 2:LineMeasures 3:VectorTessellationA</t>
-  </si>
-  <si>
-    <t>solution9</t>
-  </si>
-  <si>
-    <t>1:ObjectQ|VectorTessellationA|ERA 2:ObjectQ|LineA|PlainNominalA</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:FlowMatrix</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:ThresholdAmount Tool5:FlowMatrix</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:FlowMatrix</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:FlowMatrix Tool5:FlowSummation Tool6:FlowMatrix</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:DistanceMatrix Tool5:ThresholdAmount Tool6:FlowMatrix</t>
-  </si>
-  <si>
-    <t>solution9bench</t>
-  </si>
-  <si>
-    <t>1:VectorTessellationA 2:LineMeasures</t>
-  </si>
-  <si>
-    <t>1:PlainVectorRegionA 2:LineMeasures</t>
-  </si>
-  <si>
-    <t>1:PlainVectorRegionA 2:ObjectLine</t>
-  </si>
-  <si>
-    <t>solution10</t>
+    <t>solution12</t>
   </si>
   <si>
     <t>1:ObjectQ|VectorTessellationA|PlainNominalA 2:MatrixQ|VectorTessellationA|ERA 3:ObjectQ|LineA|PlainNominalA</t>
@@ -388,40 +415,40 @@
     <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:FlowAssignment</t>
   </si>
   <si>
+    <t>Tool1:MeasureSize Tool2:FunctionalClustering Tool3:DistanceNetwork Tool4:FlowAssignment</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:DistanceNetwork Tool4:FlowAssignment</t>
+  </si>
+  <si>
     <t>Tool1:FunctionalClustering Tool2:MeasureSize Tool3:DistanceNetwork Tool4:FlowAssignment</t>
   </si>
   <si>
-    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:DistanceNetwork Tool4:FlowAssignment</t>
-  </si>
-  <si>
     <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:FunctionalClustering Tool4:FlowAssignment</t>
   </si>
   <si>
-    <t>Tool1:MeasureSize Tool2:FunctionalClustering Tool3:DistanceNetwork Tool4:FlowAssignment</t>
-  </si>
-  <si>
-    <t>solution10bench</t>
+    <t>solution12bench</t>
+  </si>
+  <si>
+    <t>1:PlainVectorRegionA 2:VectorTessellationA 3:LineMeasures</t>
   </si>
   <si>
     <t>1:PlainVectorRegionA 2:PlainVectorRegionA 3:LineMeasures</t>
   </si>
   <si>
+    <t>Tool1:FlowAssignment Tool2:NetworkAnalysis</t>
+  </si>
+  <si>
+    <t>1:PlainVectorRegionA 2:VectorTessellationA 3:ObjectLine</t>
+  </si>
+  <si>
+    <t>1:VectorTessellationA 2:PlainVectorRegionA 3:ObjectLine</t>
+  </si>
+  <si>
+    <t>Tool1:NetworkAnalysis Tool2:NetworkAnalysis</t>
+  </si>
+  <si>
     <t>Tool1:MeasureSize Tool2:FlowAssignment</t>
-  </si>
-  <si>
-    <t>1:PlainVectorRegionA 2:PlainVectorRegionA 3:ObjectLine</t>
-  </si>
-  <si>
-    <t>Tool1:FlowAssignment Tool2:MeasureSize</t>
-  </si>
-  <si>
-    <t>Tool1:FlowSummation Tool2:FlowAssignment</t>
-  </si>
-  <si>
-    <t>1:VectorTessellationA 2:VectorTessellationA 3:LineMeasures</t>
-  </si>
-  <si>
-    <t>Tool1:NetworkAnalysis Tool2:NetworkAnalysis</t>
   </si>
 </sst>
 </file>
@@ -806,22 +833,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="98.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="130.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -935,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -980,7 +1009,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -989,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -997,7 +1026,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1006,7 +1035,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1023,12 +1052,12 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1040,12 +1069,12 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1054,15 +1083,15 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1074,12 +1103,12 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -1088,15 +1117,15 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -1105,15 +1134,15 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1130,7 +1159,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -1147,10 +1176,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -1159,15 +1188,15 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -1176,12 +1205,12 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -1193,15 +1222,15 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1210,15 +1239,15 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1227,15 +1256,15 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1244,15 +1273,15 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -1261,15 +1290,15 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -1278,12 +1307,12 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -1300,7 +1329,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -1317,10 +1346,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -1329,15 +1358,15 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -1346,12 +1375,12 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -1363,15 +1392,15 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1380,15 +1409,15 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1397,15 +1426,15 @@
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -1414,15 +1443,15 @@
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1431,15 +1460,15 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1448,15 +1477,15 @@
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1470,7 +1499,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
@@ -1487,10 +1516,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1504,7 +1533,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
         <v>18</v>
@@ -1521,7 +1550,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
         <v>18</v>
@@ -1567,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1575,16 +1604,16 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
         <v>59</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1601,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1609,7 +1638,7 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1618,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1652,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1669,7 +1698,7 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1686,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1703,7 +1732,7 @@
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1720,16 +1749,16 @@
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" t="s">
         <v>70</v>
       </c>
-      <c r="B53" t="s">
-        <v>71</v>
-      </c>
       <c r="C53">
         <v>1</v>
       </c>
@@ -1737,15 +1766,15 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -1754,15 +1783,15 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1771,16 +1800,16 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" t="s">
         <v>70</v>
       </c>
-      <c r="B56" t="s">
-        <v>72</v>
-      </c>
       <c r="C56">
         <v>4</v>
       </c>
@@ -1788,12 +1817,12 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s">
         <v>72</v>
@@ -1805,33 +1834,33 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" t="s">
         <v>75</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58" t="s">
         <v>76</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>4</v>
-      </c>
-      <c r="E58" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" t="s">
         <v>75</v>
       </c>
-      <c r="B59" t="s">
-        <v>76</v>
-      </c>
       <c r="C59">
         <v>2</v>
       </c>
@@ -1839,16 +1868,16 @@
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" t="s">
         <v>75</v>
       </c>
-      <c r="B60" t="s">
-        <v>76</v>
-      </c>
       <c r="C60">
         <v>3</v>
       </c>
@@ -1856,16 +1885,16 @@
         <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="s">
         <v>75</v>
       </c>
-      <c r="B61" t="s">
-        <v>76</v>
-      </c>
       <c r="C61">
         <v>4</v>
       </c>
@@ -1873,16 +1902,16 @@
         <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" t="s">
         <v>75</v>
       </c>
-      <c r="B62" t="s">
-        <v>76</v>
-      </c>
       <c r="C62">
         <v>5</v>
       </c>
@@ -1890,66 +1919,66 @@
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" t="s">
         <v>82</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
         <v>83</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
         <v>85</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <v>3</v>
-      </c>
-      <c r="E64" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
         <v>87</v>
-      </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-      <c r="D65">
-        <v>3</v>
-      </c>
-      <c r="E65" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1958,15 +1987,15 @@
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1975,49 +2004,49 @@
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68" t="s">
         <v>93</v>
-      </c>
-      <c r="B68" t="s">
-        <v>94</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>4</v>
-      </c>
-      <c r="E68" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69" t="s">
         <v>94</v>
-      </c>
-      <c r="C69">
-        <v>2</v>
-      </c>
-      <c r="D69">
-        <v>5</v>
-      </c>
-      <c r="E69" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -2026,15 +2055,15 @@
         <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -2043,15 +2072,15 @@
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -2060,66 +2089,66 @@
         <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
         <v>100</v>
-      </c>
-      <c r="B73" t="s">
-        <v>101</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-      <c r="E73" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
         <v>101</v>
-      </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-      <c r="E74" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B75" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
         <v>103</v>
-      </c>
-      <c r="C75">
-        <v>3</v>
-      </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-      <c r="E75" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -2128,15 +2157,15 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -2145,15 +2174,15 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B78" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -2162,15 +2191,15 @@
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B79" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -2179,15 +2208,15 @@
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B80" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -2196,49 +2225,49 @@
         <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
         <v>108</v>
-      </c>
-      <c r="B81" t="s">
-        <v>109</v>
-      </c>
-      <c r="C81">
-        <v>4</v>
-      </c>
-      <c r="D81">
-        <v>6</v>
-      </c>
-      <c r="E81" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82" t="s">
         <v>109</v>
-      </c>
-      <c r="C82">
-        <v>5</v>
-      </c>
-      <c r="D82">
-        <v>6</v>
-      </c>
-      <c r="E82" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -2252,10 +2281,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B84" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -2264,15 +2293,15 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -2281,15 +2310,15 @@
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B86" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -2298,15 +2327,15 @@
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -2315,32 +2344,32 @@
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B88" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B89" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -2349,66 +2378,66 @@
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B90" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C90">
         <v>3</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E90" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B91" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C91">
         <v>4</v>
       </c>
       <c r="D91">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B92" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C92">
         <v>5</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B93" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -2417,15 +2446,15 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B94" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -2434,15 +2463,15 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B95" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2451,15 +2480,15 @@
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B96" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2468,28 +2497,368 @@
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>121</v>
+      </c>
+      <c r="B98" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99" t="s">
+        <v>122</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>121</v>
+      </c>
+      <c r="B101" t="s">
+        <v>122</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" t="s">
+        <v>122</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>125</v>
+      </c>
+      <c r="B103" t="s">
         <v>126</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>125</v>
+      </c>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>125</v>
+      </c>
+      <c r="B105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>125</v>
+      </c>
+      <c r="B106" t="s">
+        <v>105</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>125</v>
+      </c>
+      <c r="B107" t="s">
+        <v>105</v>
+      </c>
+      <c r="C107">
+        <v>5</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>128</v>
+      </c>
+      <c r="B108" t="s">
+        <v>129</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>128</v>
+      </c>
+      <c r="B109" t="s">
+        <v>129</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
+      <c r="E109" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>128</v>
+      </c>
+      <c r="B110" t="s">
+        <v>129</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
+      <c r="E110" t="s">
         <v>132</v>
       </c>
-      <c r="C97">
-        <v>5</v>
-      </c>
-      <c r="D97">
-        <v>2</v>
-      </c>
-      <c r="E97" t="s">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>128</v>
+      </c>
+      <c r="B111" t="s">
+        <v>129</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
+      <c r="E111" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>128</v>
+      </c>
+      <c r="B112" t="s">
+        <v>129</v>
+      </c>
+      <c r="C112">
+        <v>5</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>135</v>
+      </c>
+      <c r="B113" t="s">
+        <v>136</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>135</v>
+      </c>
+      <c r="B114" t="s">
+        <v>137</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>135</v>
+      </c>
+      <c r="B115" t="s">
+        <v>139</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>135</v>
+      </c>
+      <c r="B116" t="s">
+        <v>140</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>135</v>
+      </c>
+      <c r="B117" t="s">
+        <v>137</v>
+      </c>
+      <c r="C117">
+        <v>5</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WorkflowSynthesis/flowmap/evaluation/evaluation.xlsx
+++ b/WorkflowSynthesis/flowmap/evaluation/evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schei008\.matplotlib\Documents\github\QuAnGIS\WorkflowSynthesis\flowmap\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E96D2C3-4E49-4E25-BAA1-06B0ADB317A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB53BB6-A2E4-4807-8BDF-223AFDC2435F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1896" yWindow="384" windowWidth="20112" windowHeight="10848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eval" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="151">
   <si>
     <t>Workflow task</t>
   </si>
@@ -343,67 +343,91 @@
     <t>solution9</t>
   </si>
   <si>
-    <t>1:ObjectQ|VectorTessellationA|ERA 2:ObjectQ|LineA|PlainNominalA</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:ThresholdDistance Tool5:FlowMatrixSingly</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:ThresholdAmount Tool5:FlowMatrixDoubly</t>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:FlowSummation Tool5:FlowMatrixDoubly</t>
+  </si>
+  <si>
+    <t>Tool1:FlowSummation Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:FlowMatrixDoubly</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:FlowSummation Tool4:DistanceMatrix Tool5:FlowMatrixDoubly</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:FlowSummation Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:FlowMatrixDoubly</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:FlowSummation Tool4:DistanceNetwork Tool5:DistanceMatrix Tool6:FlowMatrixDoubly</t>
   </si>
   <si>
     <t>solution9bench</t>
   </si>
   <si>
-    <t>1:VectorTessellationA 2:ObjectLine</t>
-  </si>
-  <si>
-    <t>1:VectorTessellationA 2:LineMeasures</t>
-  </si>
-  <si>
-    <t>1:PlainVectorRegionA 2:ObjectLine</t>
-  </si>
-  <si>
-    <t>Tool1:DistanceNetwork Tool2:DistanceMatrix</t>
-  </si>
-  <si>
     <t>solution10</t>
   </si>
   <si>
+    <t>Tool1:FunctionalClustering Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:CatchmentArea</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:FlowSummation Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:ThresholdDistance</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:FunctionalClustering Tool5:CatchmentArea</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:FlowSummation Tool5:ThresholdDistance</t>
+  </si>
+  <si>
     <t>solution10bench</t>
   </si>
   <si>
-    <t>1:PlainVectorRegionA 2:LineMeasures</t>
+    <t>1:PlainVectorRegionA 2:ObjectLine 3:PlainVectorRegionA</t>
   </si>
   <si>
     <t>Tool1:DistanceMatrix Tool2:ThresholdDistance</t>
   </si>
   <si>
-    <t>Tool1:MeasureSize Tool2:DistanceMatrix</t>
+    <t>1:PlainVectorRegionA 2:LineMeasures 3:VectorTessellationA</t>
+  </si>
+  <si>
+    <t>solution11</t>
+  </si>
+  <si>
+    <t>1:ObjectQ|VectorTessellationA|PlainNominalA 2:ObjectQ|LineA|PlainNominalA 3:MatrixQ|VectorTessellationA|ERA 4:ObjectQ|VectorTessellationA|IRA</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:FlowSummation Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:FlowMatrixSingly</t>
+  </si>
+  <si>
+    <t>Tool1:FlowSummation Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:FlowMatrixSingly</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:FlowSummation Tool4:DistanceMatrix Tool5:FlowMatrixSingly</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:FlowSummation Tool5:FlowMatrixSingly</t>
+  </si>
+  <si>
+    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:FlowSummation Tool4:DistanceMatrix Tool5:FlowMatrixSingly Tool6:FlowSummation</t>
+  </si>
+  <si>
+    <t>solution11bench</t>
+  </si>
+  <si>
+    <t>1:VectorTessellationA 2:LineMeasures 3:VectorTessellationA 4:PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>1:VectorTessellationA 2:LineMeasures 3:VectorTessellationA 4:VectorTessellationA</t>
+  </si>
+  <si>
+    <t>1:PlainVectorRegionA 2:ObjectLine 3:VectorTessellationA 4:PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>Tool1:TradeArea Tool2:DistanceMatrix</t>
+  </si>
+  <si>
+    <t>1:PlainVectorRegionA 2:LineMeasures 3:VectorTessellationA 4:VectorTessellationA</t>
   </si>
   <si>
     <t>Tool1:FlowMatrixSingly Tool2:DistanceMatrix</t>
-  </si>
-  <si>
-    <t>solution11</t>
-  </si>
-  <si>
-    <t>1:ObjectQ|VectorTessellationA|ERA 2:ObjectQ|LineA|PlainNominalA 3:ObjectQ|VectorTessellationA|IRA</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:FlowMatrixSingly</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:ThresholdAmount Tool5:FlowMatrixSingly</t>
-  </si>
-  <si>
-    <t>solution11bench</t>
-  </si>
-  <si>
-    <t>1:PlainVectorRegionA 2:ObjectLine 3:PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>1:PlainVectorRegionA 2:LineMeasures 3:VectorTessellationA</t>
   </si>
   <si>
     <t>solution12</t>
@@ -836,15 +860,13 @@
   <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="98.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="128.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="130.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
@@ -2182,16 +2204,16 @@
         <v>106</v>
       </c>
       <c r="B78" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
         <v>107</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>4</v>
-      </c>
-      <c r="E78" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2199,7 +2221,7 @@
         <v>106</v>
       </c>
       <c r="B79" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -2208,7 +2230,7 @@
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2216,7 +2238,7 @@
         <v>106</v>
       </c>
       <c r="B80" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -2225,7 +2247,7 @@
         <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -2233,7 +2255,7 @@
         <v>106</v>
       </c>
       <c r="B81" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -2242,7 +2264,7 @@
         <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2250,41 +2272,41 @@
         <v>106</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C82">
         <v>5</v>
       </c>
       <c r="D82">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E82" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B83" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B84" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -2293,15 +2315,15 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B85" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -2310,15 +2332,15 @@
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B86" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -2327,15 +2349,15 @@
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B87" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -2344,49 +2366,49 @@
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B88" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89" t="s">
         <v>115</v>
-      </c>
-      <c r="B89" t="s">
-        <v>107</v>
-      </c>
-      <c r="C89">
-        <v>2</v>
-      </c>
-      <c r="D89">
-        <v>4</v>
-      </c>
-      <c r="E89" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -2395,15 +2417,15 @@
         <v>5</v>
       </c>
       <c r="E90" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B91" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -2412,49 +2434,49 @@
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
         <v>107</v>
-      </c>
-      <c r="C92">
-        <v>5</v>
-      </c>
-      <c r="D92">
-        <v>5</v>
-      </c>
-      <c r="E92" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B93" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B94" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -2463,15 +2485,15 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B95" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2480,15 +2502,15 @@
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B96" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2497,15 +2519,15 @@
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B97" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -2514,49 +2536,49 @@
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B98" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B99" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E99" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2565,15 +2587,15 @@
         <v>5</v>
       </c>
       <c r="E100" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2582,32 +2604,32 @@
         <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B102" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C102">
         <v>5</v>
       </c>
       <c r="D102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E102" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B103" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -2616,15 +2638,15 @@
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -2633,15 +2655,15 @@
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B105" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -2650,15 +2672,15 @@
         <v>2</v>
       </c>
       <c r="E105" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -2672,10 +2694,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="C107">
         <v>5</v>
@@ -2684,15 +2706,15 @@
         <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B108" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -2701,15 +2723,15 @@
         <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -2718,15 +2740,15 @@
         <v>4</v>
       </c>
       <c r="E109" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B110" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C110">
         <v>3</v>
@@ -2735,15 +2757,15 @@
         <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B111" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C111">
         <v>4</v>
@@ -2752,15 +2774,15 @@
         <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B112" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C112">
         <v>5</v>
@@ -2769,15 +2791,15 @@
         <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B113" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -2791,10 +2813,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B114" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -2803,15 +2825,15 @@
         <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B115" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C115">
         <v>3</v>
@@ -2825,10 +2847,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B116" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C116">
         <v>4</v>
@@ -2837,15 +2859,15 @@
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B117" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C117">
         <v>5</v>
@@ -2854,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/WorkflowSynthesis/flowmap/evaluation/evaluation.xlsx
+++ b/WorkflowSynthesis/flowmap/evaluation/evaluation.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schei008\.matplotlib\Documents\github\QuAnGIS\WorkflowSynthesis\flowmap\evaluation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB53BB6-A2E4-4807-8BDF-223AFDC2435F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1896" yWindow="384" windowWidth="20112" windowHeight="10848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="eval" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -55,67 +49,67 @@
     <t>solution1</t>
   </si>
   <si>
-    <t>1:ObjectQ|LineA|PlainNominalA 2:ObjectQ|VectorTessellationA|ERA</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:ThresholdAmount</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:FlowMatrixDoubly Tool5:FlowSummation</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:FlowMatrixDoubly Tool5:FlowMatrixSingly</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:ThresholdAmount Tool5:ThresholdAmount</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:ThresholdAmount</t>
+    <t>2:ObjectQ|VectorTessellationA|ERA 1:ObjectQ|LineA|PlainNominalA</t>
+  </si>
+  <si>
+    <t>Tool4:ThresholdAmount Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:FlowSummation Tool4:FlowMatrixDoubly Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:FlowMatrixSingly Tool4:FlowMatrixDoubly Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:ThresholdAmount Tool4:ThresholdAmount Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:ThresholdAmount Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:MeasureSize Tool1:MeasureSize</t>
   </si>
   <si>
     <t>solution1bench</t>
   </si>
   <si>
-    <t>1:ObjectLine 2:VectorTessellationA</t>
+    <t>2:VectorTessellationA 1:ObjectLine</t>
   </si>
   <si>
     <t>Tool1:DistanceMatrix</t>
   </si>
   <si>
-    <t>1:LineMeasures 2:PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>Tool1:DistanceMatrix Tool2:FlowSummation</t>
-  </si>
-  <si>
-    <t>1:LineMeasures 2:VectorTessellationA</t>
-  </si>
-  <si>
-    <t>Tool1:DistanceMatrix Tool2:CatchmentArea</t>
-  </si>
-  <si>
-    <t>Tool1:NetworkAnalysis Tool2:DistanceMatrix</t>
-  </si>
-  <si>
-    <t>Tool1:DistanceMatrix Tool2:ThresholdAmount</t>
+    <t>2:PlainVectorRegionA 1:LineMeasures</t>
+  </si>
+  <si>
+    <t>Tool2:FlowSummation Tool1:DistanceMatrix</t>
+  </si>
+  <si>
+    <t>2:VectorTessellationA 1:LineMeasures</t>
+  </si>
+  <si>
+    <t>Tool2:CatchmentArea Tool1:DistanceMatrix</t>
+  </si>
+  <si>
+    <t>Tool2:DistanceMatrix Tool1:NetworkAnalysis</t>
+  </si>
+  <si>
+    <t>Tool2:ThresholdAmount Tool1:DistanceMatrix</t>
   </si>
   <si>
     <t>solution2</t>
   </si>
   <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:ThresholdDistance</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:FlowMatrixDoubly</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:ThresholdDistance</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:FlowMatrixDoubly</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:ThresholdAmount Tool5:ThresholdDistance</t>
+    <t>Tool4:ThresholdDistance Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool4:FlowMatrixDoubly Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:ThresholdDistance Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:MeasureSize Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:FlowMatrixDoubly Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:MeasureSize Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:ThresholdDistance Tool4:ThresholdAmount Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
   </si>
   <si>
     <t>solution2bench</t>
@@ -124,22 +118,22 @@
     <t>solution3</t>
   </si>
   <si>
-    <t>1:ObjectQ|LineA|PlainNominalA 2:ObjectQ|VectorTessellationA|PlainNominalA</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:CatchmentArea</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:CatchmentArea</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:CatchmentArea Tool5:DistanceMatrix Tool6:CatchmentArea</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:MeasureSize Tool4:DistanceNetwork Tool5:DistanceMatrix Tool6:CatchmentArea</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:NetworkAnalysis Tool4:MeasureSize Tool5:DistanceNetwork Tool6:DistanceMatrix Tool7:CatchmentArea</t>
+    <t>2:ObjectQ|VectorTessellationA|PlainNominalA 1:ObjectQ|LineA|PlainNominalA</t>
+  </si>
+  <si>
+    <t>Tool4:CatchmentArea Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:CatchmentArea Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:MeasureSize Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool6:CatchmentArea Tool5:DistanceMatrix Tool4:CatchmentArea Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool6:CatchmentArea Tool5:DistanceMatrix Tool4:DistanceNetwork Tool3:MeasureSize Tool2:MeasureSize Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool7:CatchmentArea Tool6:DistanceMatrix Tool5:DistanceNetwork Tool4:MeasureSize Tool3:NetworkAnalysis Tool2:DistanceNetwork Tool1:MeasureSize</t>
   </si>
   <si>
     <t>solution3bench</t>
@@ -148,19 +142,19 @@
     <t>solution4</t>
   </si>
   <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:NetworkAnalysis</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:DistanceNetwork Tool4:NetworkAnalysis</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:CatchmentArea Tool5:NetworkAnalysis</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:MeasureSize Tool4:DistanceNetwork Tool5:NetworkAnalysis</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:NetworkAnalysis Tool4:MeasureSize Tool5:DistanceNetwork Tool6:NetworkAnalysis</t>
+    <t>Tool3:NetworkAnalysis Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool4:NetworkAnalysis Tool3:DistanceNetwork Tool2:MeasureSize Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:NetworkAnalysis Tool4:CatchmentArea Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:NetworkAnalysis Tool4:DistanceNetwork Tool3:MeasureSize Tool2:MeasureSize Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool6:NetworkAnalysis Tool5:DistanceNetwork Tool4:MeasureSize Tool3:NetworkAnalysis Tool2:DistanceNetwork Tool1:MeasureSize</t>
   </si>
   <si>
     <t>solution4bench</t>
@@ -172,13 +166,13 @@
     <t>Tool1:FlowAssignment</t>
   </si>
   <si>
-    <t>Tool1:FlowMatrixSingly Tool2:FlowAssignment</t>
-  </si>
-  <si>
-    <t>Tool1:CatchmentArea Tool2:FlowAssignment</t>
-  </si>
-  <si>
-    <t>Tool1:NetworkAnalysis Tool2:DistanceNetwork</t>
+    <t>Tool2:FlowAssignment Tool1:FlowMatrixSingly</t>
+  </si>
+  <si>
+    <t>Tool2:FlowAssignment Tool1:CatchmentArea</t>
+  </si>
+  <si>
+    <t>Tool2:DistanceNetwork Tool1:NetworkAnalysis</t>
   </si>
   <si>
     <t>solution5</t>
@@ -214,31 +208,31 @@
     <t>solution6</t>
   </si>
   <si>
-    <t>1:MatrixQ|VectorTessellationA|ERA 2:ObjectQ|VectorTessellationA|PlainNominalA</t>
-  </si>
-  <si>
-    <t>Tool1:FunctionalClustering Tool2:FunctionalClustering</t>
-  </si>
-  <si>
-    <t>Tool1:FunctionalClustering Tool2:FunctionalClustering Tool3:FunctionalClustering</t>
-  </si>
-  <si>
-    <t>Tool1:FunctionalClustering Tool2:FunctionalClustering Tool3:FunctionalClustering Tool4:FunctionalClustering</t>
-  </si>
-  <si>
-    <t>Tool1:FunctionalClustering Tool2:FunctionalClustering Tool3:FunctionalClustering Tool4:FunctionalClustering Tool5:FunctionalClustering</t>
+    <t>2:ObjectQ|VectorTessellationA|PlainNominalA 1:MatrixQ|VectorTessellationA|ERA</t>
+  </si>
+  <si>
+    <t>Tool2:FunctionalClustering Tool1:FunctionalClustering</t>
+  </si>
+  <si>
+    <t>Tool3:FunctionalClustering Tool2:FunctionalClustering Tool1:FunctionalClustering</t>
+  </si>
+  <si>
+    <t>Tool4:FunctionalClustering Tool3:FunctionalClustering Tool2:FunctionalClustering Tool1:FunctionalClustering</t>
+  </si>
+  <si>
+    <t>Tool5:FunctionalClustering Tool4:FunctionalClustering Tool3:FunctionalClustering Tool2:FunctionalClustering Tool1:FunctionalClustering</t>
   </si>
   <si>
     <t>solution6bench</t>
   </si>
   <si>
-    <t>1:PlainVectorRegionA 2:PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>1:PlainVectorRegionA 2:VectorTessellationA</t>
-  </si>
-  <si>
-    <t>1:VectorTessellationA 2:VectorTessellationA</t>
+    <t>2:PlainVectorRegionA 1:PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>2:VectorTessellationA 1:PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>2:VectorTessellationA 1:VectorTessellationA</t>
   </si>
   <si>
     <t>Tool1:TradeArea</t>
@@ -247,115 +241,115 @@
     <t>solution7</t>
   </si>
   <si>
-    <t>1:ObjectQ|LineA|PlainNominalA 2:ObjectQ|VectorTessellationA|PlainNominalA 3:MatrixQ|VectorTessellationA|ERA</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:TripLengthAnalysis</t>
-  </si>
-  <si>
-    <t>Tool1:FunctionalClustering Tool2:MeasureSize Tool3:DistanceNetwork Tool4:NetworkAnalysis Tool5:AccessibilityAnalysis</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:FunctionalClustering Tool4:DistanceMatrix Tool5:TripLengthAnalysis</t>
-  </si>
-  <si>
-    <t>Tool1:FunctionalClustering Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:TripLengthAnalysis</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:FunctionalClustering Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:TripLengthAnalysis</t>
+    <t>2:ObjectQ|VectorTessellationA|PlainNominalA 1:ObjectQ|LineA|PlainNominalA 3:MatrixQ|VectorTessellationA|ERA</t>
+  </si>
+  <si>
+    <t>Tool4:TripLengthAnalysis Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:AccessibilityAnalysis Tool4:NetworkAnalysis Tool3:DistanceNetwork Tool2:MeasureSize Tool1:FunctionalClustering</t>
+  </si>
+  <si>
+    <t>Tool5:TripLengthAnalysis Tool4:DistanceMatrix Tool3:FunctionalClustering Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:TripLengthAnalysis Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:MeasureSize Tool1:FunctionalClustering</t>
+  </si>
+  <si>
+    <t>Tool5:TripLengthAnalysis Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:FunctionalClustering Tool1:MeasureSize</t>
   </si>
   <si>
     <t>solution7bench</t>
   </si>
   <si>
-    <t>1:LineMeasures 2:PlainVectorRegionA 3:PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>Tool1:DistanceMatrix Tool2:TripLengthAnalysis</t>
-  </si>
-  <si>
-    <t>1:LineMeasures 2:PlainVectorRegionA 3:VectorTessellationA</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceMatrix Tool3:TripLengthAnalysis</t>
-  </si>
-  <si>
-    <t>1:LineMeasures 2:VectorTessellationA 3:VectorTessellationA</t>
-  </si>
-  <si>
-    <t>Tool1:DistanceNetwork Tool2:DistanceMatrix Tool3:TripLengthAnalysis</t>
-  </si>
-  <si>
-    <t>Tool1:DistanceMatrix Tool2:TradeArea Tool3:TripLengthAnalysis</t>
-  </si>
-  <si>
-    <t>1:ObjectLine 2:VectorTessellationA 3:PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>Tool1:NetworkAnalysis Tool2:DistanceMatrix Tool3:TripLengthAnalysis</t>
+    <t>2:PlainVectorRegionA 1:LineMeasures 3:PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>Tool2:TripLengthAnalysis Tool1:DistanceMatrix</t>
+  </si>
+  <si>
+    <t>2:PlainVectorRegionA 1:LineMeasures 3:VectorTessellationA</t>
+  </si>
+  <si>
+    <t>Tool3:TripLengthAnalysis Tool2:DistanceMatrix Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>2:VectorTessellationA 1:LineMeasures 3:VectorTessellationA</t>
+  </si>
+  <si>
+    <t>Tool3:TripLengthAnalysis Tool2:DistanceMatrix Tool1:DistanceNetwork</t>
+  </si>
+  <si>
+    <t>Tool3:TripLengthAnalysis Tool2:TradeArea Tool1:DistanceMatrix</t>
+  </si>
+  <si>
+    <t>2:VectorTessellationA 1:ObjectLine 3:PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>Tool3:TripLengthAnalysis Tool2:DistanceMatrix Tool1:NetworkAnalysis</t>
   </si>
   <si>
     <t>solution8</t>
   </si>
   <si>
-    <t>1:ObjectQ|VectorTessellationA|PlainNominalA 2:ObjectQ|LineA|PlainNominalA 3:MatrixQ|VectorTessellationA|ERA</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:TradeArea</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:FlowSummation Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:TradeArea</t>
-  </si>
-  <si>
-    <t>Tool1:FlowSummation Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:TradeArea</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:FunctionalClustering Tool4:DistanceMatrix Tool5:TradeArea</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:TradeArea Tool5:TradeArea</t>
+    <t>2:ObjectQ|LineA|PlainNominalA 1:ObjectQ|VectorTessellationA|PlainNominalA 3:MatrixQ|VectorTessellationA|ERA</t>
+  </si>
+  <si>
+    <t>Tool4:TradeArea Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:TradeArea Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:FlowSummation Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:TradeArea Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:MeasureSize Tool1:FlowSummation</t>
+  </si>
+  <si>
+    <t>Tool5:TradeArea Tool4:DistanceMatrix Tool3:FunctionalClustering Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:TradeArea Tool4:TradeArea Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
   </si>
   <si>
     <t>solution8bench</t>
   </si>
   <si>
-    <t>1:VectorTessellationA 2:ObjectLine 3:PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>Tool1:DistanceMatrix Tool2:FlowMatrixDoubly</t>
-  </si>
-  <si>
-    <t>Tool1:FlowAssignment Tool2:DistanceMatrix</t>
-  </si>
-  <si>
-    <t>1:VectorTessellationA 2:LineMeasures 3:PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>Tool1:DistanceMatrix Tool2:TradeArea</t>
-  </si>
-  <si>
-    <t>Tool1:FunctionalClustering Tool2:DistanceMatrix</t>
-  </si>
-  <si>
-    <t>1:VectorTessellationA 2:LineMeasures 3:VectorTessellationA</t>
+    <t>2:ObjectLine 1:VectorTessellationA 3:PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>Tool2:FlowMatrixDoubly Tool1:DistanceMatrix</t>
+  </si>
+  <si>
+    <t>Tool2:DistanceMatrix Tool1:FlowAssignment</t>
+  </si>
+  <si>
+    <t>2:LineMeasures 1:VectorTessellationA 3:PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>Tool2:TradeArea Tool1:DistanceMatrix</t>
+  </si>
+  <si>
+    <t>Tool2:DistanceMatrix Tool1:FunctionalClustering</t>
+  </si>
+  <si>
+    <t>2:LineMeasures 1:VectorTessellationA 3:VectorTessellationA</t>
   </si>
   <si>
     <t>solution9</t>
   </si>
   <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:FlowSummation Tool5:FlowMatrixDoubly</t>
-  </si>
-  <si>
-    <t>Tool1:FlowSummation Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:FlowMatrixDoubly</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:FlowSummation Tool4:DistanceMatrix Tool5:FlowMatrixDoubly</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:FlowSummation Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:FlowMatrixDoubly</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:FlowSummation Tool4:DistanceNetwork Tool5:DistanceMatrix Tool6:FlowMatrixDoubly</t>
+    <t>Tool5:FlowMatrixDoubly Tool4:FlowSummation Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:FlowMatrixDoubly Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:MeasureSize Tool1:FlowSummation</t>
+  </si>
+  <si>
+    <t>Tool5:FlowMatrixDoubly Tool4:DistanceMatrix Tool3:FlowSummation Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:FlowMatrixDoubly Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:FlowSummation Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool6:FlowMatrixDoubly Tool5:DistanceMatrix Tool4:DistanceNetwork Tool3:FlowSummation Tool2:MeasureSize Tool1:MeasureSize</t>
   </si>
   <si>
     <t>solution9bench</t>
@@ -364,131 +358,123 @@
     <t>solution10</t>
   </si>
   <si>
-    <t>Tool1:FunctionalClustering Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:CatchmentArea</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:FlowSummation Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:ThresholdDistance</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:FunctionalClustering Tool5:CatchmentArea</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:FlowSummation Tool5:ThresholdDistance</t>
+    <t>Tool5:CatchmentArea Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:MeasureSize Tool1:FunctionalClustering</t>
+  </si>
+  <si>
+    <t>Tool5:ThresholdDistance Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:FlowSummation Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:CatchmentArea Tool4:FunctionalClustering Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:ThresholdDistance Tool4:FlowSummation Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
   </si>
   <si>
     <t>solution10bench</t>
   </si>
   <si>
-    <t>1:PlainVectorRegionA 2:ObjectLine 3:PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>Tool1:DistanceMatrix Tool2:ThresholdDistance</t>
-  </si>
-  <si>
-    <t>1:PlainVectorRegionA 2:LineMeasures 3:VectorTessellationA</t>
+    <t>2:ObjectLine 1:PlainVectorRegionA 3:PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>Tool2:ThresholdDistance Tool1:DistanceMatrix</t>
+  </si>
+  <si>
+    <t>2:LineMeasures 1:PlainVectorRegionA 3:VectorTessellationA</t>
   </si>
   <si>
     <t>solution11</t>
   </si>
   <si>
-    <t>1:ObjectQ|VectorTessellationA|PlainNominalA 2:ObjectQ|LineA|PlainNominalA 3:MatrixQ|VectorTessellationA|ERA 4:ObjectQ|VectorTessellationA|IRA</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:FlowSummation Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:FlowMatrixSingly</t>
-  </si>
-  <si>
-    <t>Tool1:FlowSummation Tool2:MeasureSize Tool3:DistanceNetwork Tool4:DistanceMatrix Tool5:FlowMatrixSingly</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:FlowSummation Tool4:DistanceMatrix Tool5:FlowMatrixSingly</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:DistanceMatrix Tool4:FlowSummation Tool5:FlowMatrixSingly</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:FlowSummation Tool4:DistanceMatrix Tool5:FlowMatrixSingly Tool6:FlowSummation</t>
+    <t>2:ObjectQ|LineA|PlainNominalA 1:ObjectQ|VectorTessellationA|PlainNominalA 4:ObjectQ|VectorTessellationA|IRA 3:MatrixQ|VectorTessellationA|ERA</t>
+  </si>
+  <si>
+    <t>Tool5:FlowMatrixSingly Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:FlowSummation Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:FlowMatrixSingly Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:MeasureSize Tool1:FlowSummation</t>
+  </si>
+  <si>
+    <t>Tool5:FlowMatrixSingly Tool4:DistanceMatrix Tool3:FlowSummation Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:FlowMatrixSingly Tool4:FlowSummation Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool6:FlowSummation Tool5:FlowMatrixSingly Tool4:DistanceMatrix Tool3:FlowSummation Tool2:DistanceNetwork Tool1:MeasureSize</t>
   </si>
   <si>
     <t>solution11bench</t>
   </si>
   <si>
-    <t>1:VectorTessellationA 2:LineMeasures 3:VectorTessellationA 4:PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>1:VectorTessellationA 2:LineMeasures 3:VectorTessellationA 4:VectorTessellationA</t>
-  </si>
-  <si>
-    <t>1:PlainVectorRegionA 2:ObjectLine 3:VectorTessellationA 4:PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>Tool1:TradeArea Tool2:DistanceMatrix</t>
-  </si>
-  <si>
-    <t>1:PlainVectorRegionA 2:LineMeasures 3:VectorTessellationA 4:VectorTessellationA</t>
-  </si>
-  <si>
-    <t>Tool1:FlowMatrixSingly Tool2:DistanceMatrix</t>
+    <t>2:LineMeasures 1:VectorTessellationA 4:PlainVectorRegionA 3:VectorTessellationA</t>
+  </si>
+  <si>
+    <t>2:LineMeasures 1:VectorTessellationA 4:VectorTessellationA 3:VectorTessellationA</t>
+  </si>
+  <si>
+    <t>2:ObjectLine 1:PlainVectorRegionA 4:PlainVectorRegionA 3:VectorTessellationA</t>
+  </si>
+  <si>
+    <t>Tool2:DistanceMatrix Tool1:TradeArea</t>
+  </si>
+  <si>
+    <t>2:LineMeasures 1:PlainVectorRegionA 4:VectorTessellationA 3:VectorTessellationA</t>
+  </si>
+  <si>
+    <t>Tool2:DistanceMatrix Tool1:FlowMatrixSingly</t>
   </si>
   <si>
     <t>solution12</t>
   </si>
   <si>
-    <t>1:ObjectQ|VectorTessellationA|PlainNominalA 2:MatrixQ|VectorTessellationA|ERA 3:ObjectQ|LineA|PlainNominalA</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:FlowAssignment</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:FunctionalClustering Tool3:DistanceNetwork Tool4:FlowAssignment</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:MeasureSize Tool3:DistanceNetwork Tool4:FlowAssignment</t>
-  </si>
-  <si>
-    <t>Tool1:FunctionalClustering Tool2:MeasureSize Tool3:DistanceNetwork Tool4:FlowAssignment</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:DistanceNetwork Tool3:FunctionalClustering Tool4:FlowAssignment</t>
+    <t>2:MatrixQ|VectorTessellationA|ERA 1:ObjectQ|VectorTessellationA|PlainNominalA 3:ObjectQ|LineA|PlainNominalA</t>
+  </si>
+  <si>
+    <t>Tool3:FlowAssignment Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool4:FlowAssignment Tool3:DistanceNetwork Tool2:FunctionalClustering Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool4:FlowAssignment Tool3:DistanceNetwork Tool2:MeasureSize Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool4:FlowAssignment Tool3:DistanceNetwork Tool2:MeasureSize Tool1:FunctionalClustering</t>
+  </si>
+  <si>
+    <t>Tool4:FlowAssignment Tool3:FunctionalClustering Tool2:DistanceNetwork Tool1:MeasureSize</t>
   </si>
   <si>
     <t>solution12bench</t>
   </si>
   <si>
-    <t>1:PlainVectorRegionA 2:VectorTessellationA 3:LineMeasures</t>
-  </si>
-  <si>
-    <t>1:PlainVectorRegionA 2:PlainVectorRegionA 3:LineMeasures</t>
-  </si>
-  <si>
-    <t>Tool1:FlowAssignment Tool2:NetworkAnalysis</t>
-  </si>
-  <si>
-    <t>1:PlainVectorRegionA 2:VectorTessellationA 3:ObjectLine</t>
-  </si>
-  <si>
-    <t>1:VectorTessellationA 2:PlainVectorRegionA 3:ObjectLine</t>
-  </si>
-  <si>
-    <t>Tool1:NetworkAnalysis Tool2:NetworkAnalysis</t>
-  </si>
-  <si>
-    <t>Tool1:MeasureSize Tool2:FlowAssignment</t>
+    <t>2:VectorTessellationA 1:PlainVectorRegionA 3:LineMeasures</t>
+  </si>
+  <si>
+    <t>2:PlainVectorRegionA 1:PlainVectorRegionA 3:LineMeasures</t>
+  </si>
+  <si>
+    <t>Tool2:NetworkAnalysis Tool1:FlowAssignment</t>
+  </si>
+  <si>
+    <t>2:VectorTessellationA 1:PlainVectorRegionA 3:ObjectLine</t>
+  </si>
+  <si>
+    <t>2:PlainVectorRegionA 1:VectorTessellationA 3:ObjectLine</t>
+  </si>
+  <si>
+    <t>Tool2:NetworkAnalysis Tool1:NetworkAnalysis</t>
+  </si>
+  <si>
+    <t>Tool2:FlowAssignment Tool1:MeasureSize</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -516,23 +502,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -579,7 +556,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -611,27 +588,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,24 +622,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -856,58 +797,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="128.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="130.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -924,7 +853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -941,7 +870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -958,7 +887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -975,7 +904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -992,7 +921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1009,7 +938,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1026,7 +955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1043,7 +972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1060,7 +989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1077,7 +1006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1094,7 +1023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1111,7 +1040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1128,7 +1057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1145,7 +1074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1162,7 +1091,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1179,7 +1108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1196,7 +1125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1213,7 +1142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1230,7 +1159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1247,7 +1176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1264,7 +1193,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1281,7 +1210,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1298,7 +1227,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1315,7 +1244,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1332,7 +1261,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1349,7 +1278,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1366,7 +1295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1383,7 +1312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1400,7 +1329,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -1417,7 +1346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -1434,7 +1363,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -1451,7 +1380,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1468,7 +1397,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1485,7 +1414,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1502,7 +1431,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -1519,7 +1448,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1536,7 +1465,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1553,7 +1482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1570,7 +1499,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1587,7 +1516,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1604,7 +1533,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -1621,7 +1550,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -1638,7 +1567,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1655,7 +1584,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1672,7 +1601,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -1689,7 +1618,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -1706,7 +1635,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -1723,7 +1652,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -1740,7 +1669,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -1757,7 +1686,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -1774,7 +1703,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -1791,7 +1720,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -1808,7 +1737,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -1825,7 +1754,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -1842,7 +1771,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -1859,7 +1788,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -1876,7 +1805,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -1893,7 +1822,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -1910,7 +1839,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -1927,7 +1856,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -1944,7 +1873,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -1961,7 +1890,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -1978,7 +1907,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>81</v>
       </c>
@@ -1995,7 +1924,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -2012,7 +1941,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -2029,7 +1958,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>91</v>
       </c>
@@ -2046,7 +1975,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>91</v>
       </c>
@@ -2063,7 +1992,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>91</v>
       </c>
@@ -2080,7 +2009,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>91</v>
       </c>
@@ -2097,7 +2026,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -2114,7 +2043,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>98</v>
       </c>
@@ -2131,7 +2060,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>98</v>
       </c>
@@ -2148,7 +2077,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>98</v>
       </c>
@@ -2165,7 +2094,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>98</v>
       </c>
@@ -2182,7 +2111,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -2199,7 +2128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>106</v>
       </c>
@@ -2216,7 +2145,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>106</v>
       </c>
@@ -2233,7 +2162,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -2250,7 +2179,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>106</v>
       </c>
@@ -2267,7 +2196,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -2284,7 +2213,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -2301,7 +2230,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>112</v>
       </c>
@@ -2318,7 +2247,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>112</v>
       </c>
@@ -2335,7 +2264,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>112</v>
       </c>
@@ -2352,7 +2281,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>112</v>
       </c>
@@ -2369,7 +2298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>113</v>
       </c>
@@ -2386,7 +2315,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -2403,7 +2332,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -2420,7 +2349,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>113</v>
       </c>
@@ -2437,7 +2366,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -2454,7 +2383,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>118</v>
       </c>
@@ -2471,7 +2400,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>118</v>
       </c>
@@ -2488,7 +2417,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>118</v>
       </c>
@@ -2505,7 +2434,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>118</v>
       </c>
@@ -2522,7 +2451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>118</v>
       </c>
@@ -2539,7 +2468,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>122</v>
       </c>
@@ -2556,7 +2485,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>122</v>
       </c>
@@ -2573,7 +2502,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>122</v>
       </c>
@@ -2590,7 +2519,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>122</v>
       </c>
@@ -2607,7 +2536,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>122</v>
       </c>
@@ -2624,7 +2553,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>129</v>
       </c>
@@ -2641,7 +2570,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>129</v>
       </c>
@@ -2658,7 +2587,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>129</v>
       </c>
@@ -2675,7 +2604,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>129</v>
       </c>
@@ -2692,7 +2621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>129</v>
       </c>
@@ -2709,7 +2638,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>136</v>
       </c>
@@ -2726,7 +2655,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>136</v>
       </c>
@@ -2743,7 +2672,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>136</v>
       </c>
@@ -2760,7 +2689,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>136</v>
       </c>
@@ -2777,7 +2706,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>136</v>
       </c>
@@ -2794,7 +2723,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>143</v>
       </c>
@@ -2811,7 +2740,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>143</v>
       </c>
@@ -2828,7 +2757,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>143</v>
       </c>
@@ -2845,7 +2774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>143</v>
       </c>
@@ -2862,7 +2791,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>143</v>
       </c>
@@ -2881,6 +2810,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WorkflowSynthesis/flowmap/evaluation/evaluation.xlsx
+++ b/WorkflowSynthesis/flowmap/evaluation/evaluation.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schei008\.matplotlib\Documents\github\QuAnGIS\WorkflowSynthesis\flowmap\evaluation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9339B7AC-FFC3-41FB-8B7D-A7545AF78375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1068" windowWidth="20112" windowHeight="10848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="eval" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="212">
   <si>
     <t>Workflow task</t>
   </si>
@@ -106,292 +100,301 @@
     <t>2:ObjectQ|PlainVectorRegionA 1:ObjectQ|LineA</t>
   </si>
   <si>
+    <t>Tool3:FlowMatrixDoubly Tool2:DistanceMatrix Tool1:DistanceNetwork</t>
+  </si>
+  <si>
+    <t>2:ObjectQ|VectorTessellationA 1:ObjectQ|LineA</t>
+  </si>
+  <si>
+    <t>Tool3:CatchmentArea Tool2:DistanceMatrix Tool1:DistanceNetwork</t>
+  </si>
+  <si>
+    <t>Tool3:ThresholdAmount Tool2:DistanceMatrix Tool1:DistanceNetwork</t>
+  </si>
+  <si>
+    <t>Tool3:TradeArea Tool2:DistanceMatrix Tool1:DistanceNetwork</t>
+  </si>
+  <si>
+    <t>Tool3:TripLengthAnalysis Tool2:DistanceMatrix Tool1:DistanceNetwork</t>
+  </si>
+  <si>
+    <t>solution2</t>
+  </si>
+  <si>
+    <t>Tool4:ThresholdDistance Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool4:FlowMatrixDoubly Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:ThresholdDistance Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:MeasureSize Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:FlowMatrixDoubly Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:MeasureSize Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:ThresholdDistance Tool4:ThresholdAmount Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>solution2bench</t>
+  </si>
+  <si>
+    <t>solution2graph</t>
+  </si>
+  <si>
+    <t>solution3</t>
+  </si>
+  <si>
+    <t>2:ObjectQ|VectorTessellationA|PlainNominalA 1:ObjectQ|LineA|PlainNominalA</t>
+  </si>
+  <si>
+    <t>Tool4:CatchmentArea Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:CatchmentArea Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:MeasureSize Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool6:CatchmentArea Tool5:DistanceMatrix Tool4:CatchmentArea Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool6:CatchmentArea Tool5:DistanceMatrix Tool4:DistanceNetwork Tool3:MeasureSize Tool2:MeasureSize Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool7:CatchmentArea Tool6:DistanceMatrix Tool5:DistanceNetwork Tool4:MeasureSize Tool3:NetworkAnalysis Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>solution3bench</t>
+  </si>
+  <si>
+    <t>solution3graph</t>
+  </si>
+  <si>
+    <t>solution4</t>
+  </si>
+  <si>
+    <t>Tool3:NetworkAnalysis Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool4:NetworkAnalysis Tool3:DistanceNetwork Tool2:MeasureSize Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:NetworkAnalysis Tool4:CatchmentArea Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:NetworkAnalysis Tool4:DistanceNetwork Tool3:MeasureSize Tool2:MeasureSize Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool6:NetworkAnalysis Tool5:DistanceNetwork Tool4:MeasureSize Tool3:NetworkAnalysis Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>solution4bench</t>
+  </si>
+  <si>
+    <t>Tool1:NetworkAnalysis</t>
+  </si>
+  <si>
+    <t>Tool1:FlowAssignment</t>
+  </si>
+  <si>
+    <t>Tool2:FlowAssignment Tool1:FlowMatrixSingly</t>
+  </si>
+  <si>
+    <t>Tool2:FlowAssignment Tool1:CatchmentArea</t>
+  </si>
+  <si>
+    <t>Tool2:DistanceNetwork Tool1:NetworkAnalysis</t>
+  </si>
+  <si>
+    <t>solution4graph</t>
+  </si>
+  <si>
+    <t>Tool2:NetworkAnalysis Tool1:DistanceNetwork</t>
+  </si>
+  <si>
+    <t>Tool3:NetworkAnalysis Tool2:AccessibilityAnalysis Tool1:DistanceNetwork</t>
+  </si>
+  <si>
+    <t>Tool3:NetworkAnalysis Tool2:DistanceNetwork Tool1:AccessibilityAnalysis</t>
+  </si>
+  <si>
+    <t>Tool3:MeasureSize Tool2:NetworkAnalysis Tool1:DistanceNetwork</t>
+  </si>
+  <si>
+    <t>solution5</t>
+  </si>
+  <si>
+    <t>1:MatrixQ|VectorTessellationA|ERA</t>
+  </si>
+  <si>
+    <t>Tool1:FlowSummation</t>
+  </si>
+  <si>
+    <t>solution5bench</t>
+  </si>
+  <si>
+    <t>1:VectorTessellationA</t>
+  </si>
+  <si>
+    <t>1:PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>Tool1:FlowMatrixSingly</t>
+  </si>
+  <si>
+    <t>Tool1:ThresholdAmount</t>
+  </si>
+  <si>
+    <t>Tool1:ThresholdDistance</t>
+  </si>
+  <si>
+    <t>Tool1:FunctionalClustering</t>
+  </si>
+  <si>
+    <t>solution5graph</t>
+  </si>
+  <si>
+    <t>1:NetworkQ|VectorTessellationA</t>
+  </si>
+  <si>
+    <t>1:NetworkQ|PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>Tool1:TripLengthAnalysis</t>
+  </si>
+  <si>
+    <t>1:MatrixQ|PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>Tool2:AccessibilityAnalysis Tool1:FlowSummation</t>
+  </si>
+  <si>
+    <t>Tool2:TradeArea Tool1:FlowSummation</t>
+  </si>
+  <si>
+    <t>Tool2:AccessibilityAnalysis Tool1:TripLengthAnalysis</t>
+  </si>
+  <si>
+    <t>solution6</t>
+  </si>
+  <si>
+    <t>2:ObjectQ|VectorTessellationA|PlainNominalA 1:MatrixQ|VectorTessellationA|ERA</t>
+  </si>
+  <si>
+    <t>Tool2:FunctionalClustering Tool1:FunctionalClustering</t>
+  </si>
+  <si>
+    <t>Tool3:FunctionalClustering Tool2:FunctionalClustering Tool1:FunctionalClustering</t>
+  </si>
+  <si>
+    <t>Tool4:FunctionalClustering Tool3:FunctionalClustering Tool2:FunctionalClustering Tool1:FunctionalClustering</t>
+  </si>
+  <si>
+    <t>Tool5:FunctionalClustering Tool4:FunctionalClustering Tool3:FunctionalClustering Tool2:FunctionalClustering Tool1:FunctionalClustering</t>
+  </si>
+  <si>
+    <t>solution6bench</t>
+  </si>
+  <si>
+    <t>2:PlainVectorRegionA 1:PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>2:VectorTessellationA 1:PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>2:VectorTessellationA 1:VectorTessellationA</t>
+  </si>
+  <si>
+    <t>Tool1:TradeArea</t>
+  </si>
+  <si>
+    <t>solution6graph</t>
+  </si>
+  <si>
+    <t>2:ObjectQ|PlainVectorRegionA 1:NetworkQ|VectorTessellationA</t>
+  </si>
+  <si>
+    <t>2:ObjectQ|VectorTessellationA 1:NetworkQ|VectorTessellationA</t>
+  </si>
+  <si>
+    <t>Tool1:FlowMatrixDoubly</t>
+  </si>
+  <si>
+    <t>solution7</t>
+  </si>
+  <si>
+    <t>2:ObjectQ|VectorTessellationA|PlainNominalA 1:ObjectQ|LineA|PlainNominalA 3:MatrixQ|VectorTessellationA|ERA</t>
+  </si>
+  <si>
+    <t>Tool4:TripLengthAnalysis Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:AccessibilityAnalysis Tool4:NetworkAnalysis Tool3:DistanceNetwork Tool2:MeasureSize Tool1:FunctionalClustering</t>
+  </si>
+  <si>
+    <t>Tool5:TripLengthAnalysis Tool4:DistanceMatrix Tool3:FunctionalClustering Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:TripLengthAnalysis Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:MeasureSize Tool1:FunctionalClustering</t>
+  </si>
+  <si>
+    <t>Tool5:TripLengthAnalysis Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:FunctionalClustering Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>solution7bench</t>
+  </si>
+  <si>
+    <t>2:PlainVectorRegionA 1:LineMeasures 3:PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>Tool2:TripLengthAnalysis Tool1:DistanceMatrix</t>
+  </si>
+  <si>
+    <t>2:PlainVectorRegionA 1:LineMeasures 3:VectorTessellationA</t>
+  </si>
+  <si>
+    <t>Tool3:TripLengthAnalysis Tool2:DistanceMatrix Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>2:VectorTessellationA 1:LineMeasures 3:VectorTessellationA</t>
+  </si>
+  <si>
+    <t>Tool3:TripLengthAnalysis Tool2:TradeArea Tool1:DistanceMatrix</t>
+  </si>
+  <si>
+    <t>2:VectorTessellationA 1:ObjectLine 3:PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>Tool3:TripLengthAnalysis Tool2:DistanceMatrix Tool1:NetworkAnalysis</t>
+  </si>
+  <si>
+    <t>solution7graph</t>
+  </si>
+  <si>
+    <t>2:ObjectQ|PlainVectorRegionA 1:ObjectQ|LineA 3:NetworkQ|VectorTessellationA</t>
+  </si>
+  <si>
     <t>Tool2:FlowMatrixDoubly Tool1:AccessibilityAnalysis</t>
   </si>
   <si>
-    <t>2:ObjectQ|VectorTessellationA 1:ObjectQ|LineA</t>
-  </si>
-  <si>
-    <t>Tool2:ThresholdDistance Tool1:AccessibilityAnalysis</t>
+    <t>2:ObjectQ|VectorTessellationA 1:ObjectQ|LineA 3:MatrixQ|VectorTessellationA</t>
   </si>
   <si>
     <t>Tool2:FlowMatrixSingly Tool1:AccessibilityAnalysis</t>
   </si>
   <si>
-    <t>Tool2:TradeArea Tool1:AccessibilityAnalysis</t>
+    <t>2:ObjectQ|VectorTessellationA 1:ObjectQ|LineA 3:NetworkQ|VectorTessellationA</t>
   </si>
   <si>
     <t>Tool2:CatchmentArea Tool1:AccessibilityAnalysis</t>
   </si>
   <si>
-    <t>solution2</t>
-  </si>
-  <si>
-    <t>Tool4:ThresholdDistance Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>Tool4:FlowMatrixDoubly Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>Tool5:ThresholdDistance Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:MeasureSize Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>Tool5:FlowMatrixDoubly Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:MeasureSize Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>Tool5:ThresholdDistance Tool4:ThresholdAmount Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>solution2bench</t>
-  </si>
-  <si>
-    <t>solution2graph</t>
-  </si>
-  <si>
-    <t>solution3</t>
-  </si>
-  <si>
-    <t>2:ObjectQ|VectorTessellationA|PlainNominalA 1:ObjectQ|LineA|PlainNominalA</t>
-  </si>
-  <si>
-    <t>Tool4:CatchmentArea Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>Tool5:CatchmentArea Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:MeasureSize Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>Tool6:CatchmentArea Tool5:DistanceMatrix Tool4:CatchmentArea Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>Tool6:CatchmentArea Tool5:DistanceMatrix Tool4:DistanceNetwork Tool3:MeasureSize Tool2:MeasureSize Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>Tool7:CatchmentArea Tool6:DistanceMatrix Tool5:DistanceNetwork Tool4:MeasureSize Tool3:NetworkAnalysis Tool2:DistanceNetwork Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>solution3bench</t>
-  </si>
-  <si>
-    <t>solution3graph</t>
-  </si>
-  <si>
-    <t>solution4</t>
-  </si>
-  <si>
-    <t>Tool3:NetworkAnalysis Tool2:DistanceNetwork Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>Tool4:NetworkAnalysis Tool3:DistanceNetwork Tool2:MeasureSize Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>Tool5:NetworkAnalysis Tool4:CatchmentArea Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>Tool5:NetworkAnalysis Tool4:DistanceNetwork Tool3:MeasureSize Tool2:MeasureSize Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>Tool6:NetworkAnalysis Tool5:DistanceNetwork Tool4:MeasureSize Tool3:NetworkAnalysis Tool2:DistanceNetwork Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>solution4bench</t>
-  </si>
-  <si>
-    <t>Tool1:NetworkAnalysis</t>
-  </si>
-  <si>
-    <t>Tool1:FlowAssignment</t>
-  </si>
-  <si>
-    <t>Tool2:FlowAssignment Tool1:FlowMatrixSingly</t>
-  </si>
-  <si>
-    <t>Tool2:FlowAssignment Tool1:CatchmentArea</t>
-  </si>
-  <si>
-    <t>Tool2:DistanceNetwork Tool1:NetworkAnalysis</t>
-  </si>
-  <si>
-    <t>solution4graph</t>
-  </si>
-  <si>
-    <t>Tool2:NetworkAnalysis Tool1:AccessibilityAnalysis</t>
-  </si>
-  <si>
-    <t>Tool2:NetworkAnalysis Tool1:DistanceNetwork</t>
-  </si>
-  <si>
-    <t>Tool3:AccessibilityAnalysis Tool2:NetworkAnalysis Tool1:DistanceNetwork</t>
-  </si>
-  <si>
-    <t>Tool3:MeasureSize Tool2:NetworkAnalysis Tool1:DistanceNetwork</t>
-  </si>
-  <si>
-    <t>Tool3:MeasureSize Tool2:NetworkAnalysis Tool1:AccessibilityAnalysis</t>
-  </si>
-  <si>
-    <t>solution5</t>
-  </si>
-  <si>
-    <t>1:MatrixQ|VectorTessellationA|ERA</t>
-  </si>
-  <si>
-    <t>Tool1:FlowSummation</t>
-  </si>
-  <si>
-    <t>solution5bench</t>
-  </si>
-  <si>
-    <t>1:VectorTessellationA</t>
-  </si>
-  <si>
-    <t>1:PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>Tool1:FlowMatrixSingly</t>
-  </si>
-  <si>
-    <t>Tool1:ThresholdAmount</t>
-  </si>
-  <si>
-    <t>Tool1:ThresholdDistance</t>
-  </si>
-  <si>
-    <t>Tool1:FunctionalClustering</t>
-  </si>
-  <si>
-    <t>solution5graph</t>
-  </si>
-  <si>
-    <t>1:NetworkQ|VectorTessellationA</t>
-  </si>
-  <si>
-    <t>1:NetworkQ|PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>Tool1:TripLengthAnalysis</t>
-  </si>
-  <si>
-    <t>Tool2:AccessibilityAnalysis Tool1:TripLengthAnalysis</t>
-  </si>
-  <si>
-    <t>Tool2:TradeArea Tool1:FlowSummation</t>
-  </si>
-  <si>
-    <t>Tool2:AccessibilityAnalysis Tool1:FlowSummation</t>
-  </si>
-  <si>
-    <t>solution6</t>
-  </si>
-  <si>
-    <t>2:ObjectQ|VectorTessellationA|PlainNominalA 1:MatrixQ|VectorTessellationA|ERA</t>
-  </si>
-  <si>
-    <t>Tool2:FunctionalClustering Tool1:FunctionalClustering</t>
-  </si>
-  <si>
-    <t>Tool3:FunctionalClustering Tool2:FunctionalClustering Tool1:FunctionalClustering</t>
-  </si>
-  <si>
-    <t>Tool4:FunctionalClustering Tool3:FunctionalClustering Tool2:FunctionalClustering Tool1:FunctionalClustering</t>
-  </si>
-  <si>
-    <t>Tool5:FunctionalClustering Tool4:FunctionalClustering Tool3:FunctionalClustering Tool2:FunctionalClustering Tool1:FunctionalClustering</t>
-  </si>
-  <si>
-    <t>solution6bench</t>
-  </si>
-  <si>
-    <t>2:PlainVectorRegionA 1:PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>2:VectorTessellationA 1:PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>2:VectorTessellationA 1:VectorTessellationA</t>
-  </si>
-  <si>
-    <t>Tool1:TradeArea</t>
-  </si>
-  <si>
-    <t>solution6graph</t>
-  </si>
-  <si>
-    <t>2:ObjectQ|PlainVectorRegionA 1:MatrixQ|VectorTessellationA</t>
-  </si>
-  <si>
-    <t>2:ObjectQ|VectorTessellationA 1:NetworkQ|VectorTessellationA</t>
-  </si>
-  <si>
-    <t>2:ObjectQ|VectorTessellationA 1:MatrixQ|VectorTessellationA</t>
-  </si>
-  <si>
-    <t>Tool1:FlowMatrixDoubly</t>
-  </si>
-  <si>
-    <t>solution7</t>
-  </si>
-  <si>
-    <t>2:ObjectQ|VectorTessellationA|PlainNominalA 1:ObjectQ|LineA|PlainNominalA 3:MatrixQ|VectorTessellationA|ERA</t>
-  </si>
-  <si>
-    <t>Tool4:TripLengthAnalysis Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>Tool5:AccessibilityAnalysis Tool4:NetworkAnalysis Tool3:DistanceNetwork Tool2:MeasureSize Tool1:FunctionalClustering</t>
-  </si>
-  <si>
-    <t>Tool5:TripLengthAnalysis Tool4:DistanceMatrix Tool3:FunctionalClustering Tool2:DistanceNetwork Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>Tool5:TripLengthAnalysis Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:MeasureSize Tool1:FunctionalClustering</t>
-  </si>
-  <si>
-    <t>Tool5:TripLengthAnalysis Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:FunctionalClustering Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>solution7bench</t>
-  </si>
-  <si>
-    <t>2:PlainVectorRegionA 1:LineMeasures 3:PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>Tool2:TripLengthAnalysis Tool1:DistanceMatrix</t>
-  </si>
-  <si>
-    <t>2:PlainVectorRegionA 1:LineMeasures 3:VectorTessellationA</t>
-  </si>
-  <si>
-    <t>Tool3:TripLengthAnalysis Tool2:DistanceMatrix Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>2:VectorTessellationA 1:LineMeasures 3:VectorTessellationA</t>
-  </si>
-  <si>
-    <t>Tool3:TripLengthAnalysis Tool2:DistanceMatrix Tool1:DistanceNetwork</t>
-  </si>
-  <si>
-    <t>Tool3:TripLengthAnalysis Tool2:TradeArea Tool1:DistanceMatrix</t>
-  </si>
-  <si>
-    <t>2:VectorTessellationA 1:ObjectLine 3:PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>Tool3:TripLengthAnalysis Tool2:DistanceMatrix Tool1:NetworkAnalysis</t>
-  </si>
-  <si>
-    <t>solution7graph</t>
-  </si>
-  <si>
-    <t>2:ObjectQ|VectorTessellationA 1:ObjectQ|LineA 3:NetworkQ|PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>2:ObjectQ|VectorTessellationA 1:ObjectQ|LineA 3:NetworkQ|VectorTessellationA</t>
-  </si>
-  <si>
     <t>2:ObjectQ|PlainVectorRegionA 1:ObjectQ|LineA 3:NetworkQ|PlainVectorRegionA</t>
   </si>
   <si>
-    <t>Tool3:AccessibilityAnalysis Tool2:TradeArea Tool1:AccessibilityAnalysis</t>
+    <t>Tool3:AccessibilityAnalysis Tool2:FlowMatrixSingly Tool1:AccessibilityAnalysis</t>
+  </si>
+  <si>
+    <t>Tool3:TripLengthAnalysis Tool2:FlowMatrixDoubly Tool1:AccessibilityAnalysis</t>
   </si>
   <si>
     <t>solution8</t>
@@ -445,85 +448,91 @@
     <t>2:ObjectQ|LineA 1:ObjectQ|VectorTessellationA 3:NetworkQ|VectorTessellationA</t>
   </si>
   <si>
+    <t>2:ObjectQ|LineA 1:ObjectQ|VectorTessellationA 3:MatrixQ|VectorTessellationA</t>
+  </si>
+  <si>
+    <t>2:ObjectQ|LineA 1:ObjectQ|PlainVectorRegionA 3:NetworkQ|VectorTessellationA</t>
+  </si>
+  <si>
+    <t>2:ObjectQ|LineA 1:ObjectQ|PlainVectorRegionA 3:MatrixQ|PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>Tool3:TradeArea Tool2:FlowMatrixDoubly Tool1:AccessibilityAnalysis</t>
+  </si>
+  <si>
+    <t>solution9</t>
+  </si>
+  <si>
+    <t>Tool5:FlowMatrixDoubly Tool4:FlowSummation Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:FlowMatrixDoubly Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:MeasureSize Tool1:FlowSummation</t>
+  </si>
+  <si>
+    <t>Tool5:FlowMatrixDoubly Tool4:DistanceMatrix Tool3:FlowSummation Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:FlowMatrixDoubly Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:FlowSummation Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool6:FlowMatrixDoubly Tool5:DistanceMatrix Tool4:DistanceNetwork Tool3:FlowSummation Tool2:MeasureSize Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>solution9bench</t>
+  </si>
+  <si>
+    <t>solution9graph</t>
+  </si>
+  <si>
+    <t>2:ObjectQ|LineA 1:ObjectQ|PlainVectorRegionA 3:NetworkQ|PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>Tool3:DistanceMatrix Tool2:FlowMatrixDoubly Tool1:DistanceNetwork</t>
+  </si>
+  <si>
     <t>2:ObjectQ|LineA 1:ObjectQ|VectorTessellationA 3:NetworkQ|PlainVectorRegionA</t>
   </si>
   <si>
-    <t>2:ObjectQ|LineA 1:ObjectQ|VectorTessellationA 3:MatrixQ|PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>Tool3:CatchmentArea Tool2:AccessibilityAnalysis Tool1:AccessibilityAnalysis</t>
-  </si>
-  <si>
-    <t>solution9</t>
-  </si>
-  <si>
-    <t>Tool5:FlowMatrixDoubly Tool4:FlowSummation Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>Tool5:FlowMatrixDoubly Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:MeasureSize Tool1:FlowSummation</t>
-  </si>
-  <si>
-    <t>Tool5:FlowMatrixDoubly Tool4:DistanceMatrix Tool3:FlowSummation Tool2:DistanceNetwork Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>Tool5:FlowMatrixDoubly Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:FlowSummation Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>Tool6:FlowMatrixDoubly Tool5:DistanceMatrix Tool4:DistanceNetwork Tool3:FlowSummation Tool2:MeasureSize Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>solution9bench</t>
-  </si>
-  <si>
-    <t>solution9graph</t>
-  </si>
-  <si>
-    <t>2:ObjectQ|LineA 1:ObjectQ|VectorTessellationA 3:MatrixQ|VectorTessellationA</t>
+    <t>Tool3:FlowMatrixSingly Tool2:AccessibilityAnalysis Tool1:AccessibilityAnalysis</t>
   </si>
   <si>
     <t>Tool3:DistanceMatrix Tool2:FlowAssignment Tool1:DistanceNetwork</t>
   </si>
   <si>
+    <t>solution10</t>
+  </si>
+  <si>
+    <t>Tool5:CatchmentArea Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:MeasureSize Tool1:FunctionalClustering</t>
+  </si>
+  <si>
+    <t>Tool5:ThresholdDistance Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:FlowSummation Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:CatchmentArea Tool4:FunctionalClustering Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>Tool5:ThresholdDistance Tool4:FlowSummation Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
+  </si>
+  <si>
+    <t>solution10bench</t>
+  </si>
+  <si>
+    <t>2:ObjectLine 1:PlainVectorRegionA 3:PlainVectorRegionA</t>
+  </si>
+  <si>
+    <t>Tool2:ThresholdDistance Tool1:DistanceMatrix</t>
+  </si>
+  <si>
+    <t>2:LineMeasures 1:PlainVectorRegionA 3:VectorTessellationA</t>
+  </si>
+  <si>
+    <t>solution10graph</t>
+  </si>
+  <si>
     <t>2:ObjectQ|LineA 1:ObjectQ|PlainVectorRegionA 3:MatrixQ|VectorTessellationA</t>
   </si>
   <si>
-    <t>Tool3:FlowMatrixSingly Tool2:TripLengthAnalysis Tool1:AccessibilityAnalysis</t>
-  </si>
-  <si>
-    <t>Tool3:DistanceMatrix Tool2:TradeArea Tool1:DistanceNetwork</t>
-  </si>
-  <si>
-    <t>solution10</t>
-  </si>
-  <si>
-    <t>Tool5:CatchmentArea Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:MeasureSize Tool1:FunctionalClustering</t>
-  </si>
-  <si>
-    <t>Tool5:ThresholdDistance Tool4:DistanceMatrix Tool3:DistanceNetwork Tool2:FlowSummation Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>Tool5:CatchmentArea Tool4:FunctionalClustering Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>Tool5:ThresholdDistance Tool4:FlowSummation Tool3:DistanceMatrix Tool2:DistanceNetwork Tool1:MeasureSize</t>
-  </si>
-  <si>
-    <t>solution10bench</t>
-  </si>
-  <si>
-    <t>2:ObjectLine 1:PlainVectorRegionA 3:PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>Tool2:ThresholdDistance Tool1:DistanceMatrix</t>
-  </si>
-  <si>
-    <t>2:LineMeasures 1:PlainVectorRegionA 3:VectorTessellationA</t>
-  </si>
-  <si>
-    <t>solution10graph</t>
-  </si>
-  <si>
-    <t>Tool3:FlowMatrixSingly Tool2:AccessibilityAnalysis Tool1:AccessibilityAnalysis</t>
+    <t>Tool3:CatchmentArea Tool2:AccessibilityAnalysis Tool1:MeasureSize</t>
   </si>
   <si>
     <t>solution11</t>
@@ -550,31 +559,28 @@
     <t>solution11graph</t>
   </si>
   <si>
-    <t>2:ObjectQ|LineA 1:ObjectQ|PlainVectorRegionA 4:ObjectQ|VectorTessellationA 3:NetworkQ|PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>Tool3:FunctionalClustering Tool2:AccessibilityAnalysis Tool1:FlowMatrixSingly</t>
-  </si>
-  <si>
     <t>2:ObjectQ|LineA 1:ObjectQ|VectorTessellationA 4:ObjectQ|VectorTessellationA 3:NetworkQ|VectorTessellationA</t>
   </si>
   <si>
-    <t>Tool3:FlowMatrixSingly Tool2:AccessibilityAnalysis Tool1:FlowMatrixDoubly</t>
+    <t>Tool3:FunctionalClustering Tool2:FlowMatrixDoubly Tool1:AccessibilityAnalysis</t>
+  </si>
+  <si>
+    <t>Tool3:CatchmentArea Tool2:FlowMatrixSingly Tool1:AccessibilityAnalysis</t>
   </si>
   <si>
     <t>2:ObjectQ|LineA 1:ObjectQ|VectorTessellationA 4:ObjectQ|PlainVectorRegionA 3:MatrixQ|PlainVectorRegionA</t>
   </si>
   <si>
-    <t>Tool3:TradeArea Tool2:DistanceMatrix Tool1:DistanceNetwork</t>
-  </si>
-  <si>
-    <t>Tool3:CatchmentArea Tool2:AccessibilityAnalysis Tool1:ThresholdAmount</t>
-  </si>
-  <si>
-    <t>2:ObjectQ|LineA 1:ObjectQ|VectorTessellationA 4:ObjectQ|VectorTessellationA 3:MatrixQ|PlainVectorRegionA</t>
-  </si>
-  <si>
-    <t>Tool3:TradeArea Tool2:AccessibilityAnalysis Tool1:CatchmentArea</t>
+    <t>Tool3:ThresholdDistance Tool2:FlowMatrixDoubly Tool1:AccessibilityAnalysis</t>
+  </si>
+  <si>
+    <t>2:ObjectQ|LineA 1:ObjectQ|PlainVectorRegionA 4:ObjectQ|PlainVectorRegionA 3:MatrixQ|VectorTessellationA</t>
+  </si>
+  <si>
+    <t>Tool3:CatchmentArea Tool2:FlowMatrixDoubly Tool1:AccessibilityAnalysis</t>
+  </si>
+  <si>
+    <t>2:ObjectQ|LineA 1:ObjectQ|PlainVectorRegionA 4:ObjectQ|VectorTessellationA 3:MatrixQ|VectorTessellationA</t>
   </si>
   <si>
     <t>solution12</t>
@@ -625,35 +631,32 @@
     <t>solution12graph</t>
   </si>
   <si>
-    <t>2:MatrixQ|PlainVectorRegionA 1:ObjectQ|PlainVectorRegionA 3:ObjectQ|LineA</t>
+    <t>2:NetworkQ|VectorTessellationA 1:ObjectQ|VectorTessellationA 3:ObjectQ|LineA</t>
   </si>
   <si>
     <t>Tool2:FlowAssignment Tool1:DistanceNetwork</t>
   </si>
   <si>
-    <t>2:NetworkQ|PlainVectorRegionA 1:ObjectQ|VectorTessellationA 3:ObjectQ|LineA</t>
-  </si>
-  <si>
-    <t>Tool2:FlowAssignment Tool1:AccessibilityAnalysis</t>
-  </si>
-  <si>
-    <t>Tool3:FlowAssignment Tool2:FlowMatrixDoubly Tool1:DistanceNetwork</t>
-  </si>
-  <si>
-    <t>2:NetworkQ|VectorTessellationA 1:ObjectQ|VectorTessellationA 3:ObjectQ|LineA</t>
+    <t>2:NetworkQ|PlainVectorRegionA 1:ObjectQ|PlainVectorRegionA 3:ObjectQ|LineA</t>
+  </si>
+  <si>
+    <t>Tool3:FlowAssignment Tool2:DistanceNetwork Tool1:FlowMatrixSingly</t>
+  </si>
+  <si>
+    <t>Tool3:FlowAssignment Tool2:DistanceNetwork Tool1:AccessibilityAnalysis</t>
   </si>
   <si>
     <t>2:MatrixQ|VectorTessellationA 1:ObjectQ|VectorTessellationA 3:ObjectQ|LineA</t>
   </si>
   <si>
-    <t>Tool3:AccessibilityAnalysis Tool2:CatchmentArea Tool1:AccessibilityAnalysis</t>
+    <t>Tool3:FlowAssignment Tool2:FlowAssignment Tool1:DistanceNetwork</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,14 +693,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -744,7 +739,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -776,27 +771,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -828,24 +805,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1021,18 +980,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="128.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1081,7 +1036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1098,7 +1053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1115,7 +1070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1132,7 +1087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1149,7 +1104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1166,7 +1121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1183,7 +1138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1200,7 +1155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1217,7 +1172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1234,7 +1189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1245,13 +1200,13 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1262,13 +1217,13 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1279,13 +1234,13 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1296,13 +1251,13 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1313,13 +1268,13 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1336,7 +1291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1353,7 +1308,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1370,7 +1325,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1387,7 +1342,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1404,7 +1359,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1421,7 +1376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1438,7 +1393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1455,7 +1410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -1472,7 +1427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1489,7 +1444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1500,13 +1455,13 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1517,13 +1472,13 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1534,13 +1489,13 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1551,13 +1506,13 @@
         <v>4</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1568,13 +1523,13 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1591,7 +1546,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1608,7 +1563,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1625,7 +1580,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1642,7 +1597,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1659,7 +1614,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -1676,7 +1631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1693,7 +1648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -1710,7 +1665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -1727,7 +1682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1744,7 +1699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -1755,13 +1710,13 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -1772,13 +1727,13 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -1789,13 +1744,13 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1806,13 +1761,13 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1823,13 +1778,13 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1846,7 +1801,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1863,7 +1818,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -1880,7 +1835,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1897,7 +1852,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1914,7 +1869,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1931,7 +1886,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1948,7 +1903,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -1965,7 +1920,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -1982,7 +1937,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1999,12 +1954,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2016,7 +1971,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -2027,13 +1982,13 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -2050,7 +2005,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -2064,10 +2019,10 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -2081,151 +2036,151 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
         <v>69</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
         <v>70</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62" t="s">
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
         <v>72</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
         <v>73</v>
       </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="B65" t="s">
         <v>72</v>
       </c>
-      <c r="B64" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
         <v>72</v>
       </c>
-      <c r="B65" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" t="s">
-        <v>74</v>
-      </c>
-      <c r="C66">
-        <v>4</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67">
-        <v>5</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67" t="s">
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
         <v>79</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
         <v>80</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
         <v>81</v>
       </c>
-      <c r="C69">
-        <v>2</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>79</v>
-      </c>
-      <c r="B70" t="s">
-        <v>80</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -2237,12 +2192,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -2254,12 +2209,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" t="s">
         <v>79</v>
-      </c>
-      <c r="B72" t="s">
-        <v>80</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -2271,7 +2226,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -2285,10 +2240,10 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -2305,7 +2260,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -2322,7 +2277,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -2339,7 +2294,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>86</v>
       </c>
@@ -2356,7 +2311,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -2370,10 +2325,10 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -2387,10 +2342,10 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -2404,10 +2359,10 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>92</v>
       </c>
@@ -2424,7 +2379,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>92</v>
       </c>
@@ -2438,10 +2393,10 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -2455,10 +2410,10 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -2472,15 +2427,15 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -2489,10 +2444,10 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>97</v>
       </c>
@@ -2506,10 +2461,10 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>97</v>
       </c>
@@ -2523,199 +2478,199 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="B88" t="s">
         <v>102</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88" t="s">
         <v>103</v>
       </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>4</v>
-      </c>
-      <c r="E88" t="s">
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" t="s">
         <v>102</v>
       </c>
-      <c r="B89" t="s">
-        <v>103</v>
-      </c>
-      <c r="C89">
-        <v>2</v>
-      </c>
-      <c r="D89">
-        <v>5</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" t="s">
         <v>102</v>
       </c>
-      <c r="B90" t="s">
-        <v>103</v>
-      </c>
-      <c r="C90">
-        <v>3</v>
-      </c>
-      <c r="D90">
-        <v>5</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" t="s">
         <v>102</v>
       </c>
-      <c r="B91" t="s">
-        <v>103</v>
-      </c>
-      <c r="C91">
-        <v>4</v>
-      </c>
-      <c r="D91">
-        <v>5</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="C92">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>102</v>
-      </c>
-      <c r="B92" t="s">
-        <v>103</v>
-      </c>
-      <c r="C92">
-        <v>5</v>
-      </c>
-      <c r="D92">
-        <v>5</v>
-      </c>
-      <c r="E92" t="s">
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="B93" t="s">
         <v>109</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
         <v>110</v>
       </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>2</v>
-      </c>
-      <c r="E93" t="s">
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>108</v>
+      </c>
+      <c r="B94" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>109</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94" t="s">
         <v>112</v>
       </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-      <c r="D94">
-        <v>3</v>
-      </c>
-      <c r="E94" t="s">
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>108</v>
+      </c>
+      <c r="B95" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>109</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96" t="s">
         <v>114</v>
       </c>
-      <c r="C95">
-        <v>3</v>
-      </c>
-      <c r="D95">
-        <v>3</v>
-      </c>
-      <c r="E95" t="s">
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>109</v>
-      </c>
-      <c r="B96" t="s">
-        <v>112</v>
-      </c>
-      <c r="C96">
-        <v>4</v>
-      </c>
-      <c r="D96">
-        <v>3</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>109</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
         <v>117</v>
       </c>
-      <c r="C97">
-        <v>5</v>
-      </c>
-      <c r="D97">
-        <v>3</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="B98" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
         <v>119</v>
       </c>
-      <c r="B98" t="s">
-        <v>120</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-      <c r="E98" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B99" t="s">
         <v>120</v>
@@ -2727,15 +2682,15 @@
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2744,33 +2699,33 @@
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B101" t="s">
+        <v>124</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" t="s">
         <v>122</v>
       </c>
-      <c r="C101">
-        <v>4</v>
-      </c>
-      <c r="D101">
-        <v>2</v>
-      </c>
-      <c r="E101" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>119</v>
-      </c>
-      <c r="B102" t="s">
-        <v>120</v>
-      </c>
       <c r="C102">
         <v>5</v>
       </c>
@@ -2778,15 +2733,15 @@
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B103" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -2795,15 +2750,15 @@
         <v>4</v>
       </c>
       <c r="E103" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B104" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -2812,15 +2767,15 @@
         <v>5</v>
       </c>
       <c r="E104" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>124</v>
-      </c>
       <c r="B105" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -2829,16 +2784,16 @@
         <v>5</v>
       </c>
       <c r="E105" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>124</v>
-      </c>
-      <c r="B106" t="s">
-        <v>125</v>
-      </c>
       <c r="C106">
         <v>4</v>
       </c>
@@ -2846,15 +2801,15 @@
         <v>5</v>
       </c>
       <c r="E106" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B107" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C107">
         <v>5</v>
@@ -2863,15 +2818,15 @@
         <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B108" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -2880,15 +2835,15 @@
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B109" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -2897,33 +2852,33 @@
         <v>2</v>
       </c>
       <c r="E109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>131</v>
-      </c>
       <c r="B110" t="s">
+        <v>138</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>134</v>
+      </c>
+      <c r="B111" t="s">
         <v>135</v>
       </c>
-      <c r="C110">
-        <v>3</v>
-      </c>
-      <c r="D110">
-        <v>2</v>
-      </c>
-      <c r="E110" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>131</v>
-      </c>
-      <c r="B111" t="s">
-        <v>132</v>
-      </c>
       <c r="C111">
         <v>4</v>
       </c>
@@ -2931,15 +2886,15 @@
         <v>2</v>
       </c>
       <c r="E111" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B112" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C112">
         <v>5</v>
@@ -2951,12 +2906,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B113" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -2965,66 +2920,66 @@
         <v>2</v>
       </c>
       <c r="E113" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>142</v>
+      </c>
+      <c r="B114" t="s">
+        <v>144</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>142</v>
+      </c>
+      <c r="B115" t="s">
+        <v>144</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>142</v>
+      </c>
+      <c r="B116" t="s">
+        <v>145</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+      <c r="E116" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>139</v>
-      </c>
-      <c r="B114" t="s">
-        <v>141</v>
-      </c>
-      <c r="C114">
-        <v>2</v>
-      </c>
-      <c r="D114">
-        <v>2</v>
-      </c>
-      <c r="E114" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>139</v>
-      </c>
-      <c r="B115" t="s">
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
         <v>142</v>
       </c>
-      <c r="C115">
-        <v>3</v>
-      </c>
-      <c r="D115">
-        <v>2</v>
-      </c>
-      <c r="E115" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>139</v>
-      </c>
-      <c r="B116" t="s">
-        <v>140</v>
-      </c>
-      <c r="C116">
-        <v>4</v>
-      </c>
-      <c r="D116">
-        <v>2</v>
-      </c>
-      <c r="E116" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>139</v>
-      </c>
       <c r="B117" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C117">
         <v>5</v>
@@ -3033,15 +2988,15 @@
         <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B118" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -3050,15 +3005,15 @@
         <v>5</v>
       </c>
       <c r="E118" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C119">
         <v>2</v>
@@ -3067,15 +3022,15 @@
         <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B120" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C120">
         <v>3</v>
@@ -3084,15 +3039,15 @@
         <v>5</v>
       </c>
       <c r="E120" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C121">
         <v>4</v>
@@ -3101,15 +3056,15 @@
         <v>5</v>
       </c>
       <c r="E121" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>144</v>
-      </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C122">
         <v>5</v>
@@ -3118,15 +3073,15 @@
         <v>6</v>
       </c>
       <c r="E122" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B123" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -3135,15 +3090,15 @@
         <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -3152,33 +3107,33 @@
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B125" t="s">
+        <v>138</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>154</v>
+      </c>
+      <c r="B126" t="s">
         <v>135</v>
       </c>
-      <c r="C125">
-        <v>3</v>
-      </c>
-      <c r="D125">
-        <v>2</v>
-      </c>
-      <c r="E125" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>150</v>
-      </c>
-      <c r="B126" t="s">
-        <v>132</v>
-      </c>
       <c r="C126">
         <v>4</v>
       </c>
@@ -3186,15 +3141,15 @@
         <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B127" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C127">
         <v>5</v>
@@ -3206,12 +3161,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B128" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -3220,15 +3175,15 @@
         <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B129" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C129">
         <v>2</v>
@@ -3237,15 +3192,15 @@
         <v>2</v>
       </c>
       <c r="E129" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B130" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C130">
         <v>3</v>
@@ -3254,15 +3209,15 @@
         <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B131" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C131">
         <v>4</v>
@@ -3271,15 +3226,15 @@
         <v>3</v>
       </c>
       <c r="E131" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>151</v>
-      </c>
       <c r="B132" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C132">
         <v>5</v>
@@ -3288,15 +3243,15 @@
         <v>3</v>
       </c>
       <c r="E132" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B133" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -3305,15 +3260,15 @@
         <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B134" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C134">
         <v>2</v>
@@ -3322,15 +3277,15 @@
         <v>5</v>
       </c>
       <c r="E134" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B135" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C135">
         <v>3</v>
@@ -3339,15 +3294,15 @@
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B136" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C136">
         <v>4</v>
@@ -3356,15 +3311,15 @@
         <v>5</v>
       </c>
       <c r="E136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>157</v>
-      </c>
       <c r="B137" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C137">
         <v>5</v>
@@ -3373,15 +3328,15 @@
         <v>5</v>
       </c>
       <c r="E137" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B138" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -3390,15 +3345,15 @@
         <v>2</v>
       </c>
       <c r="E138" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C139">
         <v>2</v>
@@ -3407,15 +3362,15 @@
         <v>2</v>
       </c>
       <c r="E139" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B140" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C140">
         <v>3</v>
@@ -3424,15 +3379,15 @@
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B141" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C141">
         <v>4</v>
@@ -3444,12 +3399,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B142" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C142">
         <v>5</v>
@@ -3461,12 +3416,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B143" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -3475,15 +3430,15 @@
         <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B144" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C144">
         <v>2</v>
@@ -3492,15 +3447,15 @@
         <v>2</v>
       </c>
       <c r="E144" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B145" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C145">
         <v>3</v>
@@ -3509,32 +3464,32 @@
         <v>2</v>
       </c>
       <c r="E145" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B146" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C146">
         <v>4</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B147" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="C147">
         <v>5</v>
@@ -3543,15 +3498,15 @@
         <v>3</v>
       </c>
       <c r="E147" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B148" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -3560,15 +3515,15 @@
         <v>5</v>
       </c>
       <c r="E148" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B149" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C149">
         <v>2</v>
@@ -3577,15 +3532,15 @@
         <v>5</v>
       </c>
       <c r="E149" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B150" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C150">
         <v>3</v>
@@ -3594,15 +3549,15 @@
         <v>5</v>
       </c>
       <c r="E150" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B151" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C151">
         <v>4</v>
@@ -3611,15 +3566,15 @@
         <v>5</v>
       </c>
       <c r="E151" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>168</v>
-      </c>
       <c r="B152" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C152">
         <v>5</v>
@@ -3628,15 +3583,15 @@
         <v>6</v>
       </c>
       <c r="E152" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B153" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -3645,15 +3600,15 @@
         <v>3</v>
       </c>
       <c r="E153" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B154" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C154">
         <v>2</v>
@@ -3662,32 +3617,32 @@
         <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B155" t="s">
+        <v>184</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
         <v>180</v>
       </c>
-      <c r="C155">
-        <v>3</v>
-      </c>
-      <c r="D155">
-        <v>3</v>
-      </c>
-      <c r="E155" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>175</v>
-      </c>
       <c r="B156" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C156">
         <v>4</v>
@@ -3696,15 +3651,15 @@
         <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B157" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C157">
         <v>5</v>
@@ -3713,15 +3668,15 @@
         <v>3</v>
       </c>
       <c r="E157" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B158" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -3730,15 +3685,15 @@
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B159" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C159">
         <v>2</v>
@@ -3747,15 +3702,15 @@
         <v>4</v>
       </c>
       <c r="E159" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B160" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C160">
         <v>3</v>
@@ -3764,15 +3719,15 @@
         <v>4</v>
       </c>
       <c r="E160" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>185</v>
-      </c>
       <c r="B161" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C161">
         <v>4</v>
@@ -3781,16 +3736,16 @@
         <v>4</v>
       </c>
       <c r="E161" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>189</v>
+      </c>
+      <c r="B162" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>185</v>
-      </c>
-      <c r="B162" t="s">
-        <v>186</v>
-      </c>
       <c r="C162">
         <v>5</v>
       </c>
@@ -3798,15 +3753,15 @@
         <v>4</v>
       </c>
       <c r="E162" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B163" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -3818,12 +3773,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B164" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C164">
         <v>2</v>
@@ -3832,15 +3787,15 @@
         <v>2</v>
       </c>
       <c r="E164" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B165" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C165">
         <v>3</v>
@@ -3852,12 +3807,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B166" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C166">
         <v>4</v>
@@ -3866,16 +3821,16 @@
         <v>2</v>
       </c>
       <c r="E166" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>196</v>
+      </c>
+      <c r="B167" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>192</v>
-      </c>
-      <c r="B167" t="s">
-        <v>194</v>
-      </c>
       <c r="C167">
         <v>5</v>
       </c>
@@ -3883,15 +3838,15 @@
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B168" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -3900,32 +3855,32 @@
         <v>2</v>
       </c>
       <c r="E168" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B169" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C169">
         <v>2</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E169" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>200</v>
-      </c>
       <c r="B170" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C170">
         <v>3</v>
@@ -3934,16 +3889,16 @@
         <v>3</v>
       </c>
       <c r="E170" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>204</v>
+      </c>
+      <c r="B171" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>200</v>
-      </c>
-      <c r="B171" t="s">
-        <v>206</v>
-      </c>
       <c r="C171">
         <v>4</v>
       </c>
@@ -3951,15 +3906,15 @@
         <v>3</v>
       </c>
       <c r="E171" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B172" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C172">
         <v>5</v>
@@ -3968,7 +3923,7 @@
         <v>3</v>
       </c>
       <c r="E172" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
